--- a/docs/first_look.xlsx
+++ b/docs/first_look.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wqa-my.sharepoint.com/personal/tj_cloudlink_ai/Documents/Dokumenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tj\projects\ghg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D5D92314-D7D5-410E-B315-AA6C9A4A25A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45234094-6507-4CF9-B572-226C201FABCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DA7069-0841-428E-91D1-21A16F5F7F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="45600" windowHeight="18960" xr2:uid="{76B05FAE-C68E-4A2B-A79B-9E09D2AFAA26}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="250">
   <si>
     <t>Petrol (100% mineral petrol) (Motor Gasoline)</t>
   </si>
@@ -578,6 +578,9 @@
     <t>Results</t>
   </si>
   <si>
+    <t>LITERS</t>
+  </si>
+  <si>
     <t>Kilograms</t>
   </si>
   <si>
@@ -1214,6 +1217,15 @@
   </si>
   <si>
     <t>of data</t>
+  </si>
+  <si>
+    <t>DIVIDE</t>
+  </si>
+  <si>
+    <t>METRIC TONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIT </t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2331,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2395,6 +2407,14 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2427,6 +2447,30 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2554,32 +2598,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6175,12 +6217,12 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="72"/>
+    <col min="1" max="1" width="9.140625" style="82"/>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
@@ -6195,106 +6237,106 @@
     <col min="13" max="13" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:24" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
+      <c r="G3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
     </row>
     <row r="5" spans="2:24" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -6318,26 +6360,26 @@
       <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="57">
         <v>8.6</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6345,24 +6387,24 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="60" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -6378,24 +6420,24 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="61" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -6412,369 +6454,371 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
     </row>
     <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
     </row>
     <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
     </row>
     <row r="11" spans="2:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="81" t="s">
+      <c r="B11" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="90"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+    </row>
+    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="61" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" s="81"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="51" t="s">
-        <v>61</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="85" t="s">
+      <c r="I12" s="100"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
+      <c r="M12" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="23">
         <v>10000</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="42">
         <f>10000/8.6</f>
         <v>1162.7906976744187</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="82" t="s">
+      <c r="I13" s="96"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
+      <c r="M13" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="80"/>
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="2:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="37"/>
+      <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="2">
+      <c r="D14" s="39"/>
+      <c r="E14" s="24">
         <v>8.6</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="82"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
     </row>
-    <row r="17" spans="2:24" ht="27" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+    <row r="17" spans="2:24" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="44">
         <v>2.3357600000000001E-3</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="66">
         <v>0.27200000000000002</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
     </row>
     <row r="18" spans="2:24" ht="27" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="45">
         <v>1.118E-7</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="66">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
     </row>
     <row r="19" spans="2:24" ht="27" x14ac:dyDescent="0.25">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="46">
         <v>1.0320000000000001E-8</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="66">
         <v>1.2099999999999999E-3</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="47">
         <v>2.3392E-3</v>
       </c>
       <c r="D20" s="1"/>
@@ -6783,62 +6827,68 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
+      <c r="G21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1">
         <f>F17*E13</f>
         <v>2720</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1">
         <v>1000</v>
@@ -6847,37 +6897,37 @@
         <f>F22/H22</f>
         <v>2.72</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1">
         <f>F18*E13</f>
         <v>128</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1">
         <v>1000000</v>
@@ -6886,38 +6936,38 @@
         <f>F23/H23</f>
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="59">
+      <c r="B24" s="69">
         <f>G13*C17</f>
         <v>2.7160000000000002</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1">
         <f>F19*E13</f>
         <v>12.1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1">
         <v>1000000</v>
@@ -6926,163 +6976,163 @@
         <f>F24/H24</f>
         <v>1.2099999999999999E-5</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="57">
+      <c r="B25" s="67">
         <f>G13*C18</f>
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="57">
+      <c r="B26" s="67">
         <f>G13*C19</f>
         <v>1.2000000000000002E-5</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="88">
+      <c r="I26" s="98">
         <f>I22+I23+I24</f>
         <v>2.7201401000000005</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="181">
+      <c r="B27" s="191">
         <f>G13*C20</f>
         <v>2.72</v>
       </c>
-      <c r="C27" s="182"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
     </row>
     <row r="28" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
     </row>
     <row r="29" spans="2:24" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
     </row>
     <row r="30" spans="2:24" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -7106,591 +7156,591 @@
       <c r="I30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="65">
+      <c r="B31" s="75">
         <v>2.7156000000000002</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="76">
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="77">
         <v>1.208E-5</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="78">
         <v>2.7156068690400006</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="70" t="s">
+      <c r="I31" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="82"/>
+      <c r="X40" s="82"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="72"/>
-      <c r="X50" s="72"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="72"/>
-      <c r="W51" s="72"/>
-      <c r="X51" s="72"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="72"/>
-      <c r="W52" s="72"/>
-      <c r="X52" s="72"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7776,8 +7826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E086561E-A881-43E9-B0CB-F36452D18F86}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA60" sqref="AA60"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7812,191 +7862,191 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="138" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="B1" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="148" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="148" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="156" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" s="158" t="s">
+        <v>234</v>
+      </c>
+      <c r="R1" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="138" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="138" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="148" t="s">
+      <c r="T1" s="158" t="s">
+        <v>238</v>
+      </c>
+      <c r="U1" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="V1" s="148" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="148" t="s">
-        <v>236</v>
-      </c>
-      <c r="S1" s="148" t="s">
-        <v>237</v>
-      </c>
-      <c r="T1" s="148" t="s">
-        <v>237</v>
-      </c>
-      <c r="U1" s="149" t="s">
-        <v>224</v>
-      </c>
-      <c r="V1" s="138" t="s">
-        <v>232</v>
-      </c>
-      <c r="W1" s="138" t="s">
-        <v>232</v>
-      </c>
-      <c r="X1" s="138" t="s">
-        <v>232</v>
+      <c r="W1" s="148" t="s">
+        <v>233</v>
+      </c>
+      <c r="X1" s="148" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="135" t="s">
+      <c r="A2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="91" t="s">
+      <c r="G2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="92" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="147" t="s">
+      <c r="P2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="159" t="s">
+      <c r="Q2" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="157" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="167" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
     </row>
     <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
+        <v>75</v>
+      </c>
+      <c r="O3" s="104"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
     </row>
     <row r="4" spans="1:29" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="137" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="99" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="D4" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="E4" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99" t="s">
+      <c r="F4" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="99" t="s">
+      <c r="K4" s="109" t="s">
         <v>81</v>
+      </c>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="109" t="s">
+        <v>82</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>12</v>
@@ -8010,10 +8060,10 @@
       <c r="T4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="164" t="s">
+      <c r="V4" s="174" t="s">
         <v>17</v>
       </c>
       <c r="W4" s="14" t="s">
@@ -8022,25 +8072,25 @@
       <c r="X4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="64" t="s">
+      <c r="Y4" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA4" s="139" t="s">
+      <c r="Z4" s="168" t="s">
         <v>226</v>
       </c>
-      <c r="AB4" s="139" t="s">
+      <c r="AA4" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="AC4" s="139" t="s">
+      <c r="AB4" s="149" t="s">
         <v>228</v>
+      </c>
+      <c r="AC4" s="149" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7" t="str" cm="1">
         <f t="array" ref="B5">IFERROR(_xlfn.IFS($D5="Other", C5&amp;"_" &amp;Ref_Other_to,OR($D5="UK", $D5="US"),$D5),"")</f>
@@ -8059,7 +8109,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" s="9">
         <v>1000000000</v>
@@ -8072,11 +8122,11 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="134" t="str">
+      <c r="O5" s="144" t="str">
         <f>IFERROR(IF(AND(B5&lt;&gt;"US",F5="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G5,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P5" s="101" t="str">
+      <c r="P5" s="111" t="str">
         <f>IF(OR((
 AND(C5="UK",OR(D5="Water",D5="Aircraft",D5="Rail"),OR(E5="Scope 1",E5="Scope 3"),F5="Vehicle Distance (e.g. Road Transport)")),
 AND(OR(C5="UK",B5="Other_UK"),D5&lt;&gt;"Road",OR(E5="Scope 1",E5="Scope 3"),F5="Vehicle Distance (e.g. Road Transport)"),
@@ -8094,20 +8144,20 @@
       <c r="Q5" s="15">
         <v>140120</v>
       </c>
-      <c r="R5" s="102">
+      <c r="R5" s="112">
         <v>12.799999999999999</v>
       </c>
-      <c r="S5" s="151">
+      <c r="S5" s="161">
         <v>1.208</v>
       </c>
-      <c r="T5" s="140">
+      <c r="T5" s="150">
         <v>140120.686904</v>
       </c>
       <c r="U5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="165" t="s">
-        <v>84</v>
+      <c r="V5" s="175" t="s">
+        <v>85</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>22</v>
@@ -8115,29 +8165,29 @@
       <c r="X5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="166" t="s">
+      <c r="Y5" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="142">
+      <c r="Z5" s="152">
         <f>Q5</f>
         <v>140120</v>
       </c>
-      <c r="AA5" s="143">
+      <c r="AA5" s="153">
         <f>R5/1000</f>
         <v>1.2799999999999999E-2</v>
       </c>
-      <c r="AB5" s="144">
+      <c r="AB5" s="154">
         <f>S5/1000</f>
         <v>1.2079999999999999E-3</v>
       </c>
-      <c r="AC5" s="145">
+      <c r="AC5" s="155">
         <f>Z5+AA5+AB5</f>
         <v>140120.014008</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="7" t="str" cm="1">
         <f t="array" ref="B6">IFERROR(_xlfn.IFS($D6="Other", C6&amp;"_" &amp;Ref_Other_to,OR($D6="UK", $D6="US"),$D6),"")</f>
@@ -8156,7 +8206,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" s="9">
         <v>1000000000</v>
@@ -8169,11 +8219,11 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="134" t="str">
+      <c r="O6" s="144" t="str">
         <f>IFERROR(IF(AND(B6&lt;&gt;"US",F6="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G6,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P6" s="101" t="str">
+      <c r="P6" s="111" t="str">
         <f t="shared" ref="P6:P49" si="0">IF(OR((
 AND(C6="UK",OR(D6="Water",D6="Aircraft",D6="Rail"),OR(E6="Scope 1",E6="Scope 3"),F6="Vehicle Distance (e.g. Road Transport)")),
 AND(OR(C6="UK",B6="Other_UK"),D6&lt;&gt;"Road",OR(E6="Scope 1",E6="Scope 3"),F6="Vehicle Distance (e.g. Road Transport)"),
@@ -8191,20 +8241,20 @@
       <c r="Q6" s="15">
         <v>177510</v>
       </c>
-      <c r="R6" s="102">
+      <c r="R6" s="112">
         <v>12.799999999999999</v>
       </c>
-      <c r="S6" s="151">
+      <c r="S6" s="161">
         <v>1.208</v>
       </c>
-      <c r="T6" s="140">
+      <c r="T6" s="150">
         <v>177510.686904</v>
       </c>
       <c r="U6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="165" t="s">
-        <v>86</v>
+      <c r="V6" s="175" t="s">
+        <v>87</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>22</v>
@@ -8212,29 +8262,29 @@
       <c r="X6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="166" t="s">
+      <c r="Y6" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="142">
+      <c r="Z6" s="152">
         <f t="shared" ref="Z6:Z55" si="1">Q6</f>
         <v>177510</v>
       </c>
-      <c r="AA6" s="143">
+      <c r="AA6" s="153">
         <f t="shared" ref="AA6:AA55" si="2">R6/1000</f>
         <v>1.2799999999999999E-2</v>
       </c>
-      <c r="AB6" s="144">
+      <c r="AB6" s="154">
         <f t="shared" ref="AB6:AB55" si="3">S6/1000</f>
         <v>1.2079999999999999E-3</v>
       </c>
-      <c r="AC6" s="145">
+      <c r="AC6" s="155">
         <f t="shared" ref="AC6:AC55" si="4">Z6+AA6+AB6</f>
         <v>177510.014008</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="7" t="str" cm="1">
         <f t="array" ref="B7">IFERROR(_xlfn.IFS($D7="Other", C7&amp;"_" &amp;Ref_Other_to,OR($D7="UK", $D7="US"),$D7),"")</f>
@@ -8266,30 +8316,30 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="134" t="str">
+      <c r="O7" s="144" t="str">
         <f>IFERROR(IF(AND(B7&lt;&gt;"US",F7="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G7,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P7" s="101" t="str">
+      <c r="P7" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q7" s="18">
         <v>271560</v>
       </c>
-      <c r="R7" s="102">
+      <c r="R7" s="112">
         <v>12.799999999999999</v>
       </c>
-      <c r="S7" s="151">
+      <c r="S7" s="161">
         <v>1.208</v>
       </c>
-      <c r="T7" s="140">
+      <c r="T7" s="150">
         <v>271560.686904</v>
       </c>
       <c r="U7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="165" t="s">
+      <c r="V7" s="175" t="s">
         <v>24</v>
       </c>
       <c r="W7" s="17" t="s">
@@ -8298,29 +8348,29 @@
       <c r="X7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y7" s="166" t="s">
+      <c r="Y7" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="142">
+      <c r="Z7" s="152">
         <f t="shared" si="1"/>
         <v>271560</v>
       </c>
-      <c r="AA7" s="143">
+      <c r="AA7" s="153">
         <f t="shared" si="2"/>
         <v>1.2799999999999999E-2</v>
       </c>
-      <c r="AB7" s="144">
+      <c r="AB7" s="154">
         <f t="shared" si="3"/>
         <v>1.2079999999999999E-3</v>
       </c>
-      <c r="AC7" s="145">
+      <c r="AC7" s="155">
         <f t="shared" si="4"/>
         <v>271560.01400800003</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="7" t="str" cm="1">
         <f t="array" ref="B8">IFERROR(_xlfn.IFS($D8="Other", C8&amp;"_" &amp;Ref_Other_to,OR($D8="UK", $D8="US"),$D8),"")</f>
@@ -8338,8 +8388,8 @@
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="170" t="s">
-        <v>87</v>
+      <c r="G8" s="180" t="s">
+        <v>88</v>
       </c>
       <c r="H8" s="9">
         <v>1000000000</v>
@@ -8352,31 +8402,31 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="134" t="str">
+      <c r="O8" s="144" t="str">
         <f>IFERROR(IF(AND(B8&lt;&gt;"US",F8="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G8,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P8" s="101" t="str">
+      <c r="P8" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q8" s="18">
         <v>163230</v>
       </c>
-      <c r="R8" s="102">
+      <c r="R8" s="112">
         <v>12.799999999999999</v>
       </c>
-      <c r="S8" s="151">
+      <c r="S8" s="161">
         <v>1.208</v>
       </c>
-      <c r="T8" s="140">
+      <c r="T8" s="150">
         <v>163230.686904</v>
       </c>
       <c r="U8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="165" t="s">
-        <v>88</v>
+      <c r="V8" s="175" t="s">
+        <v>89</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>22</v>
@@ -8384,29 +8434,29 @@
       <c r="X8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="166" t="s">
+      <c r="Y8" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="142">
+      <c r="Z8" s="152">
         <f t="shared" si="1"/>
         <v>163230</v>
       </c>
-      <c r="AA8" s="143">
+      <c r="AA8" s="153">
         <f t="shared" si="2"/>
         <v>1.2799999999999999E-2</v>
       </c>
-      <c r="AB8" s="144">
+      <c r="AB8" s="154">
         <f t="shared" si="3"/>
         <v>1.2079999999999999E-3</v>
       </c>
-      <c r="AC8" s="145">
+      <c r="AC8" s="155">
         <f t="shared" si="4"/>
         <v>163230.014008</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="7" t="str" cm="1">
         <f t="array" ref="B9">IFERROR(_xlfn.IFS($D9="Other", C9&amp;"_" &amp;Ref_Other_to,OR($D9="UK", $D9="US"),$D9),"")</f>
@@ -8425,7 +8475,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="9">
         <v>1000000000</v>
@@ -8438,61 +8488,61 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="134" t="str">
+      <c r="O9" s="144" t="str">
         <f>IFERROR(IF(AND(B9&lt;&gt;"US",F9="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G9,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P9" s="101" t="str">
+      <c r="P9" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q9" s="18">
         <v>137630</v>
       </c>
-      <c r="R9" s="102">
+      <c r="R9" s="112">
         <v>0.16599999999999998</v>
       </c>
-      <c r="S9" s="151">
+      <c r="S9" s="161">
         <v>6.3089999999999993</v>
       </c>
-      <c r="T9" s="140">
+      <c r="T9" s="150">
         <v>137631.72698839998</v>
       </c>
       <c r="U9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="165" t="s">
-        <v>90</v>
+      <c r="V9" s="175" t="s">
+        <v>91</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y9" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="142">
+      <c r="Z9" s="152">
         <f t="shared" si="1"/>
         <v>137630</v>
       </c>
-      <c r="AA9" s="143">
+      <c r="AA9" s="153">
         <f t="shared" si="2"/>
         <v>1.6599999999999997E-4</v>
       </c>
-      <c r="AB9" s="144">
+      <c r="AB9" s="154">
         <f t="shared" si="3"/>
         <v>6.3089999999999995E-3</v>
       </c>
-      <c r="AC9" s="145">
+      <c r="AC9" s="155">
         <f t="shared" si="4"/>
         <v>137630.006475</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="7" t="str" cm="1">
         <f t="array" ref="B10">IFERROR(_xlfn.IFS($D10="Other", C10&amp;"_" &amp;Ref_Other_to,OR($D10="UK", $D10="US"),$D10),"")</f>
@@ -8511,7 +8561,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" s="9">
         <v>1000000000</v>
@@ -8524,61 +8574,61 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="134" t="str">
+      <c r="O10" s="144" t="str">
         <f>IFERROR(IF(AND(B10&lt;&gt;"US",F10="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G10,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P10" s="101" t="str">
+      <c r="P10" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q10" s="18">
         <v>165480</v>
       </c>
-      <c r="R10" s="102">
+      <c r="R10" s="112">
         <v>0.16599999999999998</v>
       </c>
-      <c r="S10" s="151">
+      <c r="S10" s="161">
         <v>6.3089999999999993</v>
       </c>
-      <c r="T10" s="140">
+      <c r="T10" s="150">
         <v>165481.72698839998</v>
       </c>
       <c r="U10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="165" t="s">
-        <v>94</v>
+      <c r="V10" s="175" t="s">
+        <v>95</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y10" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="142">
+      <c r="Z10" s="152">
         <f t="shared" si="1"/>
         <v>165480</v>
       </c>
-      <c r="AA10" s="143">
+      <c r="AA10" s="153">
         <f t="shared" si="2"/>
         <v>1.6599999999999997E-4</v>
       </c>
-      <c r="AB10" s="144">
+      <c r="AB10" s="154">
         <f t="shared" si="3"/>
         <v>6.3089999999999995E-3</v>
       </c>
-      <c r="AC10" s="145">
+      <c r="AC10" s="155">
         <f t="shared" si="4"/>
         <v>165480.006475</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" s="7" t="str" cm="1">
         <f t="array" ref="B11">IFERROR(_xlfn.IFS($D11="Other", C11&amp;"_" &amp;Ref_Other_to,OR($D11="UK", $D11="US"),$D11),"")</f>
@@ -8597,7 +8647,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H11" s="9">
         <v>1000000000</v>
@@ -8610,61 +8660,61 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="134" t="str">
+      <c r="O11" s="144" t="str">
         <f>IFERROR(IF(AND(B11&lt;&gt;"US",F11="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G11,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P11" s="101" t="str">
+      <c r="P11" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q11" s="18">
         <v>206910</v>
       </c>
-      <c r="R11" s="102">
+      <c r="R11" s="112">
         <v>0.16599999999999998</v>
       </c>
-      <c r="S11" s="151">
+      <c r="S11" s="161">
         <v>6.3089999999999993</v>
       </c>
-      <c r="T11" s="140">
+      <c r="T11" s="150">
         <v>206911.72698839998</v>
       </c>
       <c r="U11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="165" t="s">
-        <v>96</v>
+      <c r="V11" s="175" t="s">
+        <v>97</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y11" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y11" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="142">
+      <c r="Z11" s="152">
         <f t="shared" si="1"/>
         <v>206910</v>
       </c>
-      <c r="AA11" s="143">
+      <c r="AA11" s="153">
         <f t="shared" si="2"/>
         <v>1.6599999999999997E-4</v>
       </c>
-      <c r="AB11" s="144">
+      <c r="AB11" s="154">
         <f t="shared" si="3"/>
         <v>6.3089999999999995E-3</v>
       </c>
-      <c r="AC11" s="145">
+      <c r="AC11" s="155">
         <f t="shared" si="4"/>
         <v>206910.006475</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="7" t="str" cm="1">
         <f t="array" ref="B12">IFERROR(_xlfn.IFS($D12="Other", C12&amp;"_" &amp;Ref_Other_to,OR($D12="UK", $D12="US"),$D12),"")</f>
@@ -8682,8 +8732,8 @@
       <c r="F12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="170" t="s">
-        <v>97</v>
+      <c r="G12" s="180" t="s">
+        <v>98</v>
       </c>
       <c r="H12" s="9">
         <v>1000000000</v>
@@ -8696,61 +8746,61 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="134" t="str">
+      <c r="O12" s="144" t="str">
         <f>IFERROR(IF(AND(B12&lt;&gt;"US",F12="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G12,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P12" s="101" t="str">
+      <c r="P12" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q12" s="18">
         <v>168150</v>
       </c>
-      <c r="R12" s="103">
+      <c r="R12" s="113">
         <v>0.16599999999999998</v>
       </c>
-      <c r="S12" s="151">
+      <c r="S12" s="161">
         <v>6.3089999999999993</v>
       </c>
-      <c r="T12" s="140">
+      <c r="T12" s="150">
         <v>168151.72698839998</v>
       </c>
       <c r="U12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="165" t="s">
-        <v>98</v>
+      <c r="V12" s="175" t="s">
+        <v>99</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y12" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z12" s="142">
+      <c r="Z12" s="152">
         <f t="shared" si="1"/>
         <v>168150</v>
       </c>
-      <c r="AA12" s="143">
+      <c r="AA12" s="153">
         <f t="shared" si="2"/>
         <v>1.6599999999999997E-4</v>
       </c>
-      <c r="AB12" s="144">
+      <c r="AB12" s="154">
         <f t="shared" si="3"/>
         <v>6.3089999999999995E-3</v>
       </c>
-      <c r="AC12" s="145">
+      <c r="AC12" s="155">
         <f t="shared" si="4"/>
         <v>168150.006475</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="7" t="str" cm="1">
         <f t="array" ref="B13">IFERROR(_xlfn.IFS($D13="Other", C13&amp;"_" &amp;Ref_Other_to,OR($D13="UK", $D13="US"),$D13),"")</f>
@@ -8769,7 +8819,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H13" s="9">
         <v>1000000000</v>
@@ -8782,61 +8832,61 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="100">
+      <c r="O13" s="110">
         <f t="shared" ref="O13" si="5">IFERROR(IF(AND(C13&lt;&gt;"US",F13="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G13,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>23.194944770623945</v>
       </c>
-      <c r="P13" s="101" t="str">
+      <c r="P13" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q13" s="18">
         <v>100490</v>
       </c>
-      <c r="R13" s="103">
+      <c r="R13" s="113">
         <v>8.4</v>
       </c>
-      <c r="S13" s="151">
+      <c r="S13" s="161">
         <v>2.919</v>
       </c>
-      <c r="T13" s="140">
+      <c r="T13" s="150">
         <v>100491.03124700001</v>
       </c>
       <c r="U13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="165" t="s">
-        <v>100</v>
+      <c r="V13" s="175" t="s">
+        <v>101</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y13" s="166" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z13" s="142">
+      <c r="Z13" s="152">
         <f t="shared" si="1"/>
         <v>100490</v>
       </c>
-      <c r="AA13" s="143">
+      <c r="AA13" s="153">
         <f t="shared" si="2"/>
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="AB13" s="144">
+      <c r="AB13" s="154">
         <f t="shared" si="3"/>
         <v>2.9190000000000002E-3</v>
       </c>
-      <c r="AC13" s="145">
+      <c r="AC13" s="155">
         <f t="shared" si="4"/>
         <v>100490.01131900001</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7" t="str" cm="1">
         <f t="array" ref="B14">IFERROR(_xlfn.IFS($D14="Other", C14&amp;"_" &amp;Ref_Other_to,OR($D14="UK", $D14="US"),$D14),"")</f>
@@ -8855,7 +8905,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H14" s="9">
         <v>1000000000</v>
@@ -8868,61 +8918,61 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="100">
+      <c r="O14" s="110">
         <f t="shared" ref="O14" si="6">IFERROR(IF(AND(C14&lt;&gt;"US",F14="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G14,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>21.616062320319021</v>
       </c>
-      <c r="P14" s="101" t="str">
+      <c r="P14" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q14" s="18">
         <v>107830</v>
       </c>
-      <c r="R14" s="103">
+      <c r="R14" s="113">
         <v>6</v>
       </c>
-      <c r="S14" s="151">
+      <c r="S14" s="161">
         <v>3.9259999999999997</v>
       </c>
-      <c r="T14" s="140">
+      <c r="T14" s="150">
         <v>107831.23919800001</v>
       </c>
       <c r="U14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="165" t="s">
-        <v>104</v>
+      <c r="V14" s="175" t="s">
+        <v>105</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y14" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z14" s="142">
+      <c r="Z14" s="152">
         <f t="shared" si="1"/>
         <v>107830</v>
       </c>
-      <c r="AA14" s="143">
+      <c r="AA14" s="153">
         <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AB14" s="144">
+      <c r="AB14" s="154">
         <f t="shared" si="3"/>
         <v>3.9259999999999998E-3</v>
       </c>
-      <c r="AC14" s="145">
+      <c r="AC14" s="155">
         <f t="shared" si="4"/>
         <v>107830.009926</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="7" t="str" cm="1">
         <f t="array" ref="B15">IFERROR(_xlfn.IFS($D15="Other", C15&amp;"_" &amp;Ref_Other_to,OR($D15="UK", $D15="US"),$D15),"")</f>
@@ -8941,7 +8991,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H15" s="9">
         <v>1000000000</v>
@@ -8954,61 +9004,61 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="100">
+      <c r="O15" s="110">
         <f t="shared" ref="O15" si="7">IFERROR(IF(AND(C15&lt;&gt;"US",F15="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G15,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>15.435136745910865</v>
       </c>
-      <c r="P15" s="101" t="str">
+      <c r="P15" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q15" s="18">
         <v>151010</v>
       </c>
-      <c r="R15" s="103">
+      <c r="R15" s="113">
         <v>3.5999999999999996</v>
       </c>
-      <c r="S15" s="151">
+      <c r="S15" s="161">
         <v>5</v>
       </c>
-      <c r="T15" s="140">
+      <c r="T15" s="150">
         <v>151011.46544</v>
       </c>
       <c r="U15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="165" t="s">
-        <v>108</v>
+      <c r="V15" s="175" t="s">
+        <v>109</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X15" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y15" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y15" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="142">
+      <c r="Z15" s="152">
         <f t="shared" si="1"/>
         <v>151010</v>
       </c>
-      <c r="AA15" s="143">
+      <c r="AA15" s="153">
         <f t="shared" si="2"/>
         <v>3.5999999999999995E-3</v>
       </c>
-      <c r="AB15" s="144">
+      <c r="AB15" s="154">
         <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AC15" s="145">
+      <c r="AC15" s="155">
         <f t="shared" si="4"/>
         <v>151010.0086</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="7" t="str" cm="1">
         <f t="array" ref="B16">IFERROR(_xlfn.IFS($D16="Other", C16&amp;"_" &amp;Ref_Other_to,OR($D16="UK", $D16="US"),$D16),"")</f>
@@ -9026,8 +9076,8 @@
       <c r="F16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="170" t="s">
-        <v>111</v>
+      <c r="G16" s="180" t="s">
+        <v>112</v>
       </c>
       <c r="H16" s="9">
         <v>1000000000</v>
@@ -9040,61 +9090,61 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="100">
+      <c r="O16" s="110">
         <f t="shared" ref="O16" si="8">IFERROR(IF(AND(C16&lt;&gt;"US",F16="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G16,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>19.784907902554963</v>
       </c>
-      <c r="P16" s="101" t="str">
+      <c r="P16" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q16" s="18">
         <v>117810</v>
       </c>
-      <c r="R16" s="103">
+      <c r="R16" s="113">
         <v>6.8</v>
       </c>
-      <c r="S16" s="151">
+      <c r="S16" s="161">
         <v>3.6909999999999998</v>
       </c>
-      <c r="T16" s="140">
+      <c r="T16" s="150">
         <v>117811.197363</v>
       </c>
       <c r="U16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="165" t="s">
-        <v>112</v>
+      <c r="V16" s="175" t="s">
+        <v>113</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y16" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y16" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z16" s="142">
+      <c r="Z16" s="152">
         <f t="shared" si="1"/>
         <v>117810</v>
       </c>
-      <c r="AA16" s="143">
+      <c r="AA16" s="153">
         <f t="shared" si="2"/>
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="AB16" s="144">
+      <c r="AB16" s="154">
         <f t="shared" si="3"/>
         <v>3.6909999999999998E-3</v>
       </c>
-      <c r="AC16" s="145">
+      <c r="AC16" s="155">
         <f t="shared" si="4"/>
         <v>117810.01049100001</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="7" t="str" cm="1">
         <f t="array" ref="B17">IFERROR(_xlfn.IFS($D17="Other", C17&amp;"_" &amp;Ref_Other_to,OR($D17="UK", $D17="US"),$D17),"")</f>
@@ -9113,7 +9163,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="9">
         <v>1000000000</v>
@@ -9126,61 +9176,61 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="100">
+      <c r="O17" s="110">
         <f t="shared" ref="O17" si="9">IFERROR(IF(AND(C17&lt;&gt;"US",F17="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G17,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>2.8974558166634301</v>
       </c>
-      <c r="P17" s="101" t="str">
+      <c r="P17" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q17" s="18">
         <v>154470</v>
       </c>
-      <c r="R17" s="103">
+      <c r="R17" s="113">
         <v>63.2</v>
       </c>
-      <c r="S17" s="151">
+      <c r="S17" s="161">
         <v>1.3758389261744965</v>
       </c>
-      <c r="T17" s="140">
+      <c r="T17" s="150">
         <v>154472.13888402685</v>
       </c>
       <c r="U17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V17" s="165" t="s">
-        <v>116</v>
+      <c r="V17" s="175" t="s">
+        <v>117</v>
       </c>
       <c r="W17" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X17" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y17" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y17" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z17" s="142">
+      <c r="Z17" s="152">
         <f t="shared" si="1"/>
         <v>154470</v>
       </c>
-      <c r="AA17" s="143">
+      <c r="AA17" s="153">
         <f t="shared" si="2"/>
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="AB17" s="144">
+      <c r="AB17" s="154">
         <f t="shared" si="3"/>
         <v>1.3758389261744966E-3</v>
       </c>
-      <c r="AC17" s="145">
+      <c r="AC17" s="155">
         <f t="shared" si="4"/>
         <v>154470.06457583894</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="7" t="str" cm="1">
         <f t="array" ref="B18">IFERROR(_xlfn.IFS($D18="Other", C18&amp;"_" &amp;Ref_Other_to,OR($D18="UK", $D18="US"),$D18),"")</f>
@@ -9199,7 +9249,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" s="9">
         <v>1000000000</v>
@@ -9212,61 +9262,61 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="100">
+      <c r="O18" s="110">
         <f t="shared" ref="O18" si="10">IFERROR(IF(AND(C18&lt;&gt;"US",F18="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G18,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>1.8939150304671633</v>
       </c>
-      <c r="P18" s="101" t="str">
+      <c r="P18" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q18" s="18">
         <v>236320</v>
       </c>
-      <c r="R18" s="103">
+      <c r="R18" s="113">
         <v>63.2</v>
       </c>
-      <c r="S18" s="151">
+      <c r="S18" s="161">
         <v>1.3758389261744965</v>
       </c>
-      <c r="T18" s="140">
+      <c r="T18" s="150">
         <v>236322.13888402685</v>
       </c>
       <c r="U18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V18" s="165" t="s">
-        <v>120</v>
+      <c r="V18" s="175" t="s">
+        <v>121</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y18" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y18" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z18" s="142">
+      <c r="Z18" s="152">
         <f t="shared" si="1"/>
         <v>236320</v>
       </c>
-      <c r="AA18" s="143">
+      <c r="AA18" s="153">
         <f t="shared" si="2"/>
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="AB18" s="144">
+      <c r="AB18" s="154">
         <f t="shared" si="3"/>
         <v>1.3758389261744966E-3</v>
       </c>
-      <c r="AC18" s="145">
+      <c r="AC18" s="155">
         <f t="shared" si="4"/>
         <v>236320.06457583894</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="7" t="str" cm="1">
         <f t="array" ref="B19">IFERROR(_xlfn.IFS($D19="Other", C19&amp;"_" &amp;Ref_Other_to,OR($D19="UK", $D19="US"),$D19),"")</f>
@@ -9284,8 +9334,8 @@
       <c r="F19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="170" t="s">
-        <v>121</v>
+      <c r="G19" s="180" t="s">
+        <v>122</v>
       </c>
       <c r="H19" s="9">
         <v>1000000000</v>
@@ -9298,61 +9348,61 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="100">
+      <c r="O19" s="110">
         <f t="shared" ref="O19" si="11">IFERROR(IF(AND(C19&lt;&gt;"US",F19="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G19,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>2.5884564224162858</v>
       </c>
-      <c r="P19" s="101" t="str">
+      <c r="P19" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q19" s="18">
         <v>172910</v>
       </c>
-      <c r="R19" s="103">
+      <c r="R19" s="113">
         <v>63.2</v>
       </c>
-      <c r="S19" s="151">
+      <c r="S19" s="161">
         <v>1.3758389261744965</v>
       </c>
-      <c r="T19" s="140">
+      <c r="T19" s="150">
         <v>172912.13888402685</v>
       </c>
       <c r="U19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V19" s="165" t="s">
-        <v>122</v>
+      <c r="V19" s="175" t="s">
+        <v>123</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y19" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y19" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z19" s="142">
+      <c r="Z19" s="152">
         <f t="shared" si="1"/>
         <v>172910</v>
       </c>
-      <c r="AA19" s="143">
+      <c r="AA19" s="153">
         <f t="shared" si="2"/>
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="AB19" s="144">
+      <c r="AB19" s="154">
         <f t="shared" si="3"/>
         <v>1.3758389261744966E-3</v>
       </c>
-      <c r="AC19" s="145">
+      <c r="AC19" s="155">
         <f t="shared" si="4"/>
         <v>172910.06457583894</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="7" t="str" cm="1">
         <f t="array" ref="B20">IFERROR(_xlfn.IFS($D20="Other", C20&amp;"_" &amp;Ref_Other_to,OR($D20="UK", $D20="US"),$D20),"")</f>
@@ -9371,7 +9421,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="9">
         <v>1000000000</v>
@@ -9384,61 +9434,61 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="100">
+      <c r="O20" s="110">
         <f t="shared" ref="O20" si="12">IFERROR(IF(AND(C20&lt;&gt;"US",F20="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G20,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>8.8523199544548827</v>
       </c>
-      <c r="P20" s="101" t="str">
+      <c r="P20" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q20" s="18">
         <v>175650</v>
       </c>
-      <c r="R20" s="103">
+      <c r="R20" s="113">
         <v>2.0000000000000004</v>
       </c>
-      <c r="S20" s="151">
+      <c r="S20" s="161">
         <v>1.3758389261744965</v>
       </c>
-      <c r="T20" s="140">
+      <c r="T20" s="150">
         <v>175650.43140402684</v>
       </c>
       <c r="U20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="165" t="s">
-        <v>124</v>
+      <c r="V20" s="175" t="s">
+        <v>125</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y20" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y20" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z20" s="142">
+      <c r="Z20" s="152">
         <f t="shared" si="1"/>
         <v>175650</v>
       </c>
-      <c r="AA20" s="143">
+      <c r="AA20" s="153">
         <f t="shared" si="2"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="AB20" s="144">
+      <c r="AB20" s="154">
         <f t="shared" si="3"/>
         <v>1.3758389261744966E-3</v>
       </c>
-      <c r="AC20" s="145">
+      <c r="AC20" s="155">
         <f t="shared" si="4"/>
         <v>175650.00337583895</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="7" t="str" cm="1">
         <f t="array" ref="B21">IFERROR(_xlfn.IFS($D21="Other", C21&amp;"_" &amp;Ref_Other_to,OR($D21="UK", $D21="US"),$D21),"")</f>
@@ -9457,7 +9507,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H21" s="9">
         <v>1000000000</v>
@@ -9470,61 +9520,61 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="100">
+      <c r="O21" s="110">
         <f t="shared" ref="O21" si="13">IFERROR(IF(AND(C21&lt;&gt;"US",F21="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G21,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>5.7863575468889552</v>
       </c>
-      <c r="P21" s="101" t="str">
+      <c r="P21" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q21" s="18">
         <v>268720</v>
       </c>
-      <c r="R21" s="103">
+      <c r="R21" s="113">
         <v>2.0000000000000004</v>
       </c>
-      <c r="S21" s="151">
+      <c r="S21" s="161">
         <v>1.3758389261744965</v>
       </c>
-      <c r="T21" s="140">
+      <c r="T21" s="150">
         <v>268720.43140402681</v>
       </c>
       <c r="U21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="165" t="s">
-        <v>127</v>
+      <c r="V21" s="175" t="s">
+        <v>128</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X21" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y21" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y21" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z21" s="142">
+      <c r="Z21" s="152">
         <f t="shared" si="1"/>
         <v>268720</v>
       </c>
-      <c r="AA21" s="143">
+      <c r="AA21" s="153">
         <f t="shared" si="2"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="AB21" s="144">
+      <c r="AB21" s="154">
         <f t="shared" si="3"/>
         <v>1.3758389261744966E-3</v>
       </c>
-      <c r="AC21" s="145">
+      <c r="AC21" s="155">
         <f t="shared" si="4"/>
         <v>268720.00337583892</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="7" t="str" cm="1">
         <f t="array" ref="B22">IFERROR(_xlfn.IFS($D22="Other", C22&amp;"_" &amp;Ref_Other_to,OR($D22="UK", $D22="US"),$D22),"")</f>
@@ -9542,8 +9592,8 @@
       <c r="F22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="170" t="s">
-        <v>128</v>
+      <c r="G22" s="180" t="s">
+        <v>129</v>
       </c>
       <c r="H22" s="9">
         <v>1000000000</v>
@@ -9556,61 +9606,61 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="100">
+      <c r="O22" s="110">
         <f t="shared" ref="O22" si="14">IFERROR(IF(AND(C22&lt;&gt;"US",F22="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G22,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>7.9081985555894621</v>
       </c>
-      <c r="P22" s="101" t="str">
+      <c r="P22" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q22" s="18">
         <v>196620</v>
       </c>
-      <c r="R22" s="103">
+      <c r="R22" s="113">
         <v>2.0000000000000004</v>
       </c>
-      <c r="S22" s="151">
+      <c r="S22" s="161">
         <v>1.3758389261744965</v>
       </c>
-      <c r="T22" s="140">
+      <c r="T22" s="150">
         <v>196620.43140402684</v>
       </c>
       <c r="U22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="165" t="s">
-        <v>129</v>
+      <c r="V22" s="175" t="s">
+        <v>130</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y22" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y22" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="142">
+      <c r="Z22" s="152">
         <f t="shared" si="1"/>
         <v>196620</v>
       </c>
-      <c r="AA22" s="143">
+      <c r="AA22" s="153">
         <f t="shared" si="2"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="AB22" s="144">
+      <c r="AB22" s="154">
         <f t="shared" si="3"/>
         <v>1.3758389261744966E-3</v>
       </c>
-      <c r="AC22" s="145">
+      <c r="AC22" s="155">
         <f t="shared" si="4"/>
         <v>196620.00337583895</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" s="7" t="str" cm="1">
         <f t="array" ref="B23">IFERROR(_xlfn.IFS($D23="Other", C23&amp;"_" &amp;Ref_Other_to,OR($D23="UK", $D23="US"),$D23),"")</f>
@@ -9629,7 +9679,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="9">
         <v>1000000000</v>
@@ -9642,61 +9692,61 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="100">
+      <c r="O23" s="110">
         <f t="shared" ref="O23" si="15">IFERROR(IF(AND(C23&lt;&gt;"US",F23="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G23,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>12.844326885986664</v>
       </c>
-      <c r="P23" s="101" t="str">
+      <c r="P23" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q23" s="18">
         <v>181470</v>
       </c>
-      <c r="R23" s="103">
+      <c r="R23" s="113">
         <v>9.6</v>
       </c>
-      <c r="S23" s="151">
+      <c r="S23" s="161">
         <v>1.6442953020134228</v>
       </c>
-      <c r="T23" s="140">
+      <c r="T23" s="150">
         <v>181470.71673261744</v>
       </c>
       <c r="U23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V23" s="165" t="s">
-        <v>131</v>
+      <c r="V23" s="175" t="s">
+        <v>132</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X23" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y23" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y23" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z23" s="142">
+      <c r="Z23" s="152">
         <f t="shared" si="1"/>
         <v>181470</v>
       </c>
-      <c r="AA23" s="143">
+      <c r="AA23" s="153">
         <f t="shared" si="2"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AB23" s="144">
+      <c r="AB23" s="154">
         <f t="shared" si="3"/>
         <v>1.6442953020134228E-3</v>
       </c>
-      <c r="AC23" s="145">
+      <c r="AC23" s="155">
         <f t="shared" si="4"/>
         <v>181470.01124429528</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="7" t="str" cm="1">
         <f t="array" ref="B24">IFERROR(_xlfn.IFS($D24="Other", C24&amp;"_" &amp;Ref_Other_to,OR($D24="UK", $D24="US"),$D24),"")</f>
@@ -9715,7 +9765,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H24" s="9">
         <v>1000000000</v>
@@ -9728,61 +9778,61 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="100">
+      <c r="O24" s="110">
         <f t="shared" ref="O24" si="16">IFERROR(IF(AND(C24&lt;&gt;"US",F24="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G24,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>11.938434746978078</v>
       </c>
-      <c r="P24" s="101" t="str">
+      <c r="P24" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q24" s="18">
         <v>195240</v>
       </c>
-      <c r="R24" s="103">
+      <c r="R24" s="113">
         <v>9.6</v>
       </c>
-      <c r="S24" s="151">
+      <c r="S24" s="161">
         <v>1.6442953020134228</v>
       </c>
-      <c r="T24" s="140">
+      <c r="T24" s="150">
         <v>195240.71673261744</v>
       </c>
       <c r="U24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V24" s="165" t="s">
-        <v>135</v>
+      <c r="V24" s="175" t="s">
+        <v>136</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y24" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y24" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z24" s="142">
+      <c r="Z24" s="152">
         <f t="shared" si="1"/>
         <v>195240</v>
       </c>
-      <c r="AA24" s="143">
+      <c r="AA24" s="153">
         <f t="shared" si="2"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AB24" s="144">
+      <c r="AB24" s="154">
         <f t="shared" si="3"/>
         <v>1.6442953020134228E-3</v>
       </c>
-      <c r="AC24" s="145">
+      <c r="AC24" s="155">
         <f t="shared" si="4"/>
         <v>195240.01124429528</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="7" t="str" cm="1">
         <f t="array" ref="B25">IFERROR(_xlfn.IFS($D25="Other", C25&amp;"_" &amp;Ref_Other_to,OR($D25="UK", $D25="US"),$D25),"")</f>
@@ -9801,7 +9851,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H25" s="9">
         <v>1000000000</v>
@@ -9814,61 +9864,61 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="100">
+      <c r="O25" s="110">
         <f t="shared" ref="O25" si="17">IFERROR(IF(AND(C25&lt;&gt;"US",F25="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G25,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>7.4292726461401157</v>
       </c>
-      <c r="P25" s="101" t="str">
+      <c r="P25" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q25" s="18">
         <v>313740</v>
       </c>
-      <c r="R25" s="103">
+      <c r="R25" s="113">
         <v>9.6</v>
       </c>
-      <c r="S25" s="151">
+      <c r="S25" s="161">
         <v>1.6442953020134228</v>
       </c>
-      <c r="T25" s="140">
+      <c r="T25" s="150">
         <v>313740.71673261741</v>
       </c>
       <c r="U25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V25" s="165" t="s">
-        <v>137</v>
+      <c r="V25" s="175" t="s">
+        <v>138</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X25" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y25" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y25" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z25" s="142">
+      <c r="Z25" s="152">
         <f t="shared" si="1"/>
         <v>313740</v>
       </c>
-      <c r="AA25" s="143">
+      <c r="AA25" s="153">
         <f t="shared" si="2"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AB25" s="144">
+      <c r="AB25" s="154">
         <f t="shared" si="3"/>
         <v>1.6442953020134228E-3</v>
       </c>
-      <c r="AC25" s="145">
+      <c r="AC25" s="155">
         <f t="shared" si="4"/>
         <v>313740.01124429528</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="7" t="str" cm="1">
         <f t="array" ref="B26">IFERROR(_xlfn.IFS($D26="Other", C26&amp;"_" &amp;Ref_Other_to,OR($D26="UK", $D26="US"),$D26),"")</f>
@@ -9886,8 +9936,8 @@
       <c r="F26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="170" t="s">
-        <v>138</v>
+      <c r="G26" s="180" t="s">
+        <v>139</v>
       </c>
       <c r="H26" s="9">
         <v>1000000000</v>
@@ -9900,61 +9950,61 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="100">
+      <c r="O26" s="110">
         <f t="shared" ref="O26" si="18">IFERROR(IF(AND(C26&lt;&gt;"US",F26="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G26,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>11.618283321702721</v>
       </c>
-      <c r="P26" s="101" t="str">
+      <c r="P26" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q26" s="18">
         <v>200620</v>
       </c>
-      <c r="R26" s="103">
+      <c r="R26" s="113">
         <v>9.6</v>
       </c>
-      <c r="S26" s="151">
+      <c r="S26" s="161">
         <v>1.6442953020134228</v>
       </c>
-      <c r="T26" s="140">
+      <c r="T26" s="150">
         <v>200620.71673261744</v>
       </c>
       <c r="U26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V26" s="165" t="s">
-        <v>139</v>
+      <c r="V26" s="175" t="s">
+        <v>140</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X26" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y26" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y26" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z26" s="142">
+      <c r="Z26" s="152">
         <f t="shared" si="1"/>
         <v>200620</v>
       </c>
-      <c r="AA26" s="143">
+      <c r="AA26" s="153">
         <f t="shared" si="2"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AB26" s="144">
+      <c r="AB26" s="154">
         <f t="shared" si="3"/>
         <v>1.6442953020134228E-3</v>
       </c>
-      <c r="AC26" s="145">
+      <c r="AC26" s="155">
         <f t="shared" si="4"/>
         <v>200620.01124429528</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="7" t="str" cm="1">
         <f t="array" ref="B27">IFERROR(_xlfn.IFS($D27="Other", C27&amp;"_" &amp;Ref_Other_to,OR($D27="UK", $D27="US"),$D27),"")</f>
@@ -9972,8 +10022,8 @@
       <c r="F27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="170" t="s">
-        <v>140</v>
+      <c r="G27" s="180" t="s">
+        <v>141</v>
       </c>
       <c r="H27" s="9">
         <v>1000000000</v>
@@ -9986,61 +10036,61 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="100">
+      <c r="O27" s="110">
         <f t="shared" ref="O27" si="19">IFERROR(IF(AND(C27&lt;&gt;"US",F27="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G27,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>11.435788006793537</v>
       </c>
-      <c r="P27" s="101" t="str">
+      <c r="P27" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q27" s="18">
         <v>229630</v>
       </c>
-      <c r="R27" s="133">
+      <c r="R27" s="143">
         <v>0</v>
       </c>
-      <c r="S27" s="151">
+      <c r="S27" s="161">
         <v>6.2416107382550328</v>
       </c>
-      <c r="T27" s="140">
+      <c r="T27" s="150">
         <v>229631.70395973153</v>
       </c>
       <c r="U27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V27" s="165" t="s">
-        <v>141</v>
+      <c r="V27" s="175" t="s">
+        <v>142</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X27" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y27" s="166" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y27" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z27" s="142">
+      <c r="Z27" s="152">
         <f t="shared" si="1"/>
         <v>229630</v>
       </c>
-      <c r="AA27" s="143">
+      <c r="AA27" s="153">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="144">
+      <c r="AB27" s="154">
         <f t="shared" si="3"/>
         <v>6.2416107382550325E-3</v>
       </c>
-      <c r="AC27" s="145">
+      <c r="AC27" s="155">
         <f t="shared" si="4"/>
         <v>229630.00624161074</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="7" t="str" cm="1">
         <f t="array" ref="B28">IFERROR(_xlfn.IFS($D28="Other", C28&amp;"_" &amp;Ref_Other_to,OR($D28="UK", $D28="US"),$D28),"")</f>
@@ -10058,8 +10108,8 @@
       <c r="F28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="170" t="s">
-        <v>144</v>
+      <c r="G28" s="180" t="s">
+        <v>145</v>
       </c>
       <c r="H28" s="9">
         <v>1000000000</v>
@@ -10072,61 +10122,61 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="100">
+      <c r="O28" s="110">
         <f t="shared" ref="O28" si="20">IFERROR(IF(AND(C28&lt;&gt;"US",F28="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G28,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>6.1096660117878194</v>
       </c>
-      <c r="P28" s="101" t="str">
+      <c r="P28" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q28" s="18">
         <v>254500</v>
       </c>
-      <c r="R28" s="103">
+      <c r="R28" s="113">
         <v>1.5999999999999999</v>
       </c>
-      <c r="S28" s="151">
+      <c r="S28" s="161">
         <v>1.879194630872483</v>
       </c>
-      <c r="T28" s="140">
+      <c r="T28" s="150">
         <v>254500.55766013425</v>
       </c>
       <c r="U28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V28" s="165" t="s">
-        <v>145</v>
+      <c r="V28" s="175" t="s">
+        <v>146</v>
       </c>
       <c r="W28" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X28" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y28" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y28" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z28" s="142">
+      <c r="Z28" s="152">
         <f t="shared" si="1"/>
         <v>254500</v>
       </c>
-      <c r="AA28" s="143">
+      <c r="AA28" s="153">
         <f t="shared" si="2"/>
         <v>1.5999999999999999E-3</v>
       </c>
-      <c r="AB28" s="144">
+      <c r="AB28" s="154">
         <f t="shared" si="3"/>
         <v>1.879194630872483E-3</v>
       </c>
-      <c r="AC28" s="145">
+      <c r="AC28" s="155">
         <f t="shared" si="4"/>
         <v>254500.00347919462</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="7" t="str" cm="1">
         <f t="array" ref="B29">IFERROR(_xlfn.IFS($D29="Other", C29&amp;"_" &amp;Ref_Other_to,OR($D29="UK", $D29="US"),$D29),"")</f>
@@ -10144,8 +10194,8 @@
       <c r="F29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="170" t="s">
-        <v>148</v>
+      <c r="G29" s="180" t="s">
+        <v>149</v>
       </c>
       <c r="H29" s="9">
         <v>1000000000</v>
@@ -10158,61 +10208,61 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="100">
+      <c r="O29" s="110">
         <f t="shared" ref="O29" si="21">IFERROR(IF(AND(C29&lt;&gt;"US",F29="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G29,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>1.9436748165197377</v>
       </c>
-      <c r="P29" s="101" t="str">
+      <c r="P29" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q29" s="18">
         <v>230270</v>
       </c>
-      <c r="R29" s="103">
+      <c r="R29" s="113">
         <v>47.2</v>
       </c>
-      <c r="S29" s="151">
+      <c r="S29" s="161">
         <v>1.879194630872483</v>
       </c>
-      <c r="T29" s="140">
+      <c r="T29" s="150">
         <v>230271.82990013424</v>
       </c>
       <c r="U29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V29" s="165" t="s">
-        <v>141</v>
+      <c r="V29" s="175" t="s">
+        <v>142</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y29" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y29" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z29" s="142">
+      <c r="Z29" s="152">
         <f t="shared" si="1"/>
         <v>230270</v>
       </c>
-      <c r="AA29" s="143">
+      <c r="AA29" s="153">
         <f t="shared" si="2"/>
         <v>4.7200000000000006E-2</v>
       </c>
-      <c r="AB29" s="144">
+      <c r="AB29" s="154">
         <f t="shared" si="3"/>
         <v>1.879194630872483E-3</v>
       </c>
-      <c r="AC29" s="145">
+      <c r="AC29" s="155">
         <f t="shared" si="4"/>
         <v>230270.04907919464</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="7" t="str" cm="1">
         <f t="array" ref="B30">IFERROR(_xlfn.IFS($D30="Other", C30&amp;"_" &amp;Ref_Other_to,OR($D30="UK", $D30="US"),$D30),"")</f>
@@ -10231,7 +10281,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H30" s="9">
         <v>1000000000</v>
@@ -10244,61 +10294,61 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="100">
+      <c r="O30" s="110">
         <f t="shared" ref="O30" si="22">IFERROR(IF(AND(C30&lt;&gt;"US",F30="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G30,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>28.797380775883369</v>
       </c>
-      <c r="P30" s="101" t="str">
+      <c r="P30" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q30" s="18">
         <v>80940</v>
       </c>
-      <c r="R30" s="103">
+      <c r="R30" s="113">
         <v>62.4</v>
       </c>
-      <c r="S30" s="151">
+      <c r="S30" s="161">
         <v>1.88</v>
       </c>
-      <c r="T30" s="140">
+      <c r="T30" s="150">
         <v>80942.254199999996</v>
       </c>
       <c r="U30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V30" s="165" t="s">
-        <v>151</v>
+      <c r="V30" s="175" t="s">
+        <v>152</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X30" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y30" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y30" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z30" s="142">
+      <c r="Z30" s="152">
         <f t="shared" si="1"/>
         <v>80940</v>
       </c>
-      <c r="AA30" s="143">
+      <c r="AA30" s="153">
         <f t="shared" si="2"/>
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="AB30" s="144">
+      <c r="AB30" s="154">
         <f t="shared" si="3"/>
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="AC30" s="145">
+      <c r="AC30" s="155">
         <f t="shared" si="4"/>
         <v>80940.064279999991</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="7" t="str" cm="1">
         <f t="array" ref="B31">IFERROR(_xlfn.IFS($D31="Other", C31&amp;"_" &amp;Ref_Other_to,OR($D31="UK", $D31="US"),$D31),"")</f>
@@ -10317,7 +10367,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H31" s="9">
         <v>1000000000</v>
@@ -10330,61 +10380,61 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="100">
+      <c r="O31" s="110">
         <f t="shared" ref="O31" si="23">IFERROR(IF(AND(C31&lt;&gt;"US",F31="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G31,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>23.721351516385099</v>
       </c>
-      <c r="P31" s="101" t="str">
+      <c r="P31" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q31" s="18">
         <v>98260</v>
       </c>
-      <c r="R31" s="103">
+      <c r="R31" s="113">
         <v>81.599999999999994</v>
       </c>
-      <c r="S31" s="151">
+      <c r="S31" s="161">
         <v>2.0099999999999998</v>
       </c>
-      <c r="T31" s="140">
+      <c r="T31" s="150">
         <v>98262.825369999991</v>
       </c>
       <c r="U31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V31" s="165" t="s">
-        <v>154</v>
+      <c r="V31" s="175" t="s">
+        <v>155</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y31" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y31" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z31" s="142">
+      <c r="Z31" s="152">
         <f t="shared" si="1"/>
         <v>98260</v>
       </c>
-      <c r="AA31" s="143">
+      <c r="AA31" s="153">
         <f t="shared" si="2"/>
         <v>8.1599999999999992E-2</v>
       </c>
-      <c r="AB31" s="144">
+      <c r="AB31" s="154">
         <f t="shared" si="3"/>
         <v>2.0099999999999996E-3</v>
       </c>
-      <c r="AC31" s="145">
+      <c r="AC31" s="155">
         <f t="shared" si="4"/>
         <v>98260.083610000001</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="7" t="str" cm="1">
         <f t="array" ref="B32">IFERROR(_xlfn.IFS($D32="Other", C32&amp;"_" &amp;Ref_Other_to,OR($D32="UK", $D32="US"),$D32),"")</f>
@@ -10403,7 +10453,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H32" s="9">
         <v>1000000000</v>
@@ -10416,61 +10466,61 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="100">
+      <c r="O32" s="110">
         <f t="shared" ref="O32" si="24">IFERROR(IF(AND(C32&lt;&gt;"US",F32="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G32,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>17.83093635250918</v>
       </c>
-      <c r="P32" s="101" t="str">
+      <c r="P32" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q32" s="18">
         <v>130720</v>
       </c>
-      <c r="R32" s="103">
+      <c r="R32" s="113">
         <v>45.199999999999996</v>
       </c>
-      <c r="S32" s="151">
+      <c r="S32" s="161">
         <v>2.0099999999999998</v>
       </c>
-      <c r="T32" s="140">
+      <c r="T32" s="150">
         <v>130721.80980999999</v>
       </c>
       <c r="U32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="165" t="s">
-        <v>158</v>
+      <c r="V32" s="175" t="s">
+        <v>159</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X32" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y32" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y32" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z32" s="142">
+      <c r="Z32" s="152">
         <f t="shared" si="1"/>
         <v>130720</v>
       </c>
-      <c r="AA32" s="143">
+      <c r="AA32" s="153">
         <f t="shared" si="2"/>
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="AB32" s="144">
+      <c r="AB32" s="154">
         <f t="shared" si="3"/>
         <v>2.0099999999999996E-3</v>
       </c>
-      <c r="AC32" s="145">
+      <c r="AC32" s="155">
         <f t="shared" si="4"/>
         <v>130720.04720999999</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="7" t="str" cm="1">
         <f t="array" ref="B33">IFERROR(_xlfn.IFS($D33="Other", C33&amp;"_" &amp;Ref_Other_to,OR($D33="UK", $D33="US"),$D33),"")</f>
@@ -10488,8 +10538,8 @@
       <c r="F33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="170" t="s">
-        <v>160</v>
+      <c r="G33" s="180" t="s">
+        <v>161</v>
       </c>
       <c r="H33" s="9">
         <v>1000000000</v>
@@ -10502,61 +10552,61 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="100">
+      <c r="O33" s="110">
         <f t="shared" ref="O33" si="25">IFERROR(IF(AND(C33&lt;&gt;"US",F33="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G33,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>20.927096426647513</v>
       </c>
-      <c r="P33" s="101" t="str">
+      <c r="P33" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q33" s="18">
         <v>111380</v>
       </c>
-      <c r="R33" s="103">
+      <c r="R33" s="113">
         <v>63.2</v>
       </c>
-      <c r="S33" s="151">
+      <c r="S33" s="161">
         <v>1.98</v>
       </c>
-      <c r="T33" s="140">
+      <c r="T33" s="150">
         <v>111382.30382</v>
       </c>
       <c r="U33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V33" s="165" t="s">
-        <v>161</v>
+      <c r="V33" s="175" t="s">
+        <v>162</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y33" s="166" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y33" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z33" s="142">
+      <c r="Z33" s="152">
         <f t="shared" si="1"/>
         <v>111380</v>
       </c>
-      <c r="AA33" s="143">
+      <c r="AA33" s="153">
         <f t="shared" si="2"/>
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="AB33" s="144">
+      <c r="AB33" s="154">
         <f t="shared" si="3"/>
         <v>1.98E-3</v>
       </c>
-      <c r="AC33" s="145">
+      <c r="AC33" s="155">
         <f t="shared" si="4"/>
         <v>111380.06518000001</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="7" t="str" cm="1">
         <f t="array" ref="B34">IFERROR(_xlfn.IFS($D34="Other", C34&amp;"_" &amp;Ref_Other_to,OR($D34="UK", $D34="US"),$D34),"")</f>
@@ -10575,7 +10625,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H34" s="9">
         <v>1000000000</v>
@@ -10588,61 +10638,61 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="100">
+      <c r="O34" s="110">
         <f t="shared" ref="O34" si="26">IFERROR(IF(AND(C34&lt;&gt;"US",F34="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G34,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>5.8776131429338818</v>
       </c>
-      <c r="P34" s="101" t="str">
+      <c r="P34" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q34" s="18">
         <v>446780</v>
       </c>
-      <c r="R34" s="103">
+      <c r="R34" s="113">
         <v>4</v>
       </c>
-      <c r="S34" s="151">
+      <c r="S34" s="161">
         <v>20.067114093959731</v>
       </c>
-      <c r="T34" s="140">
+      <c r="T34" s="150">
         <v>446785.58992214763</v>
       </c>
       <c r="U34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V34" s="165" t="s">
-        <v>164</v>
+      <c r="V34" s="175" t="s">
+        <v>165</v>
       </c>
       <c r="W34" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X34" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y34" s="166" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y34" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z34" s="142">
+      <c r="Z34" s="152">
         <f t="shared" si="1"/>
         <v>446780</v>
       </c>
-      <c r="AA34" s="143">
+      <c r="AA34" s="153">
         <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB34" s="144">
+      <c r="AB34" s="154">
         <f t="shared" si="3"/>
         <v>2.0067114093959729E-2</v>
       </c>
-      <c r="AC34" s="145">
+      <c r="AC34" s="155">
         <f t="shared" si="4"/>
         <v>446780.02406711411</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="7" t="str" cm="1">
         <f t="array" ref="B35">IFERROR(_xlfn.IFS($D35="Other", C35&amp;"_" &amp;Ref_Other_to,OR($D35="UK", $D35="US"),$D35),"")</f>
@@ -10661,7 +10711,7 @@
         <v>8</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H35" s="9">
         <v>1000000000</v>
@@ -10674,61 +10724,61 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="100">
+      <c r="O35" s="110">
         <f t="shared" ref="O35" si="27">IFERROR(IF(AND(C35&lt;&gt;"US",F35="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G35,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>5.4074089327265611</v>
       </c>
-      <c r="P35" s="101" t="str">
+      <c r="P35" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q35" s="18">
         <v>485630</v>
       </c>
-      <c r="R35" s="103">
+      <c r="R35" s="113">
         <v>4</v>
       </c>
-      <c r="S35" s="151">
+      <c r="S35" s="161">
         <v>20.067114093959731</v>
       </c>
-      <c r="T35" s="140">
+      <c r="T35" s="150">
         <v>485635.58992214763</v>
       </c>
       <c r="U35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V35" s="165" t="s">
-        <v>168</v>
+      <c r="V35" s="175" t="s">
+        <v>169</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y35" s="166" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y35" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z35" s="142">
+      <c r="Z35" s="152">
         <f t="shared" si="1"/>
         <v>485630</v>
       </c>
-      <c r="AA35" s="143">
+      <c r="AA35" s="153">
         <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB35" s="144">
+      <c r="AB35" s="154">
         <f t="shared" si="3"/>
         <v>2.0067114093959729E-2</v>
       </c>
-      <c r="AC35" s="145">
+      <c r="AC35" s="155">
         <f t="shared" si="4"/>
         <v>485630.02406711411</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="7" t="str" cm="1">
         <f t="array" ref="B36">IFERROR(_xlfn.IFS($D36="Other", C36&amp;"_" &amp;Ref_Other_to,OR($D36="UK", $D36="US"),$D36),"")</f>
@@ -10747,7 +10797,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H36" s="9">
         <v>1000000000</v>
@@ -10760,61 +10810,61 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="100">
+      <c r="O36" s="110">
         <f t="shared" ref="O36" si="28">IFERROR(IF(AND(C36&lt;&gt;"US",F36="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G36,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>5.0068639414277003</v>
       </c>
-      <c r="P36" s="101" t="str">
+      <c r="P36" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q36" s="18">
         <v>524480</v>
       </c>
-      <c r="R36" s="103">
+      <c r="R36" s="113">
         <v>4</v>
       </c>
-      <c r="S36" s="151">
+      <c r="S36" s="161">
         <v>20.067114093959731</v>
       </c>
-      <c r="T36" s="140">
+      <c r="T36" s="150">
         <v>524485.58992214757</v>
       </c>
       <c r="U36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V36" s="165" t="s">
-        <v>170</v>
+      <c r="V36" s="175" t="s">
+        <v>171</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y36" s="166" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y36" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z36" s="142">
+      <c r="Z36" s="152">
         <f t="shared" si="1"/>
         <v>524480</v>
       </c>
-      <c r="AA36" s="143">
+      <c r="AA36" s="153">
         <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB36" s="144">
+      <c r="AB36" s="154">
         <f t="shared" si="3"/>
         <v>2.0067114093959729E-2</v>
       </c>
-      <c r="AC36" s="145">
+      <c r="AC36" s="155">
         <f t="shared" si="4"/>
         <v>524480.02406711411</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="7" t="str" cm="1">
         <f t="array" ref="B37">IFERROR(_xlfn.IFS($D37="Other", C37&amp;"_" &amp;Ref_Other_to,OR($D37="UK", $D37="US"),$D37),"")</f>
@@ -10832,8 +10882,8 @@
       <c r="F37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="170" t="s">
-        <v>171</v>
+      <c r="G37" s="180" t="s">
+        <v>172</v>
       </c>
       <c r="H37" s="9">
         <v>1000000000</v>
@@ -10846,61 +10896,61 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="100">
+      <c r="O37" s="110">
         <f t="shared" ref="O37" si="29">IFERROR(IF(AND(C37&lt;&gt;"US",F37="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G37,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>5.4686686519919192</v>
       </c>
-      <c r="P37" s="101" t="str">
+      <c r="P37" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q37" s="18">
         <v>480190</v>
       </c>
-      <c r="R37" s="103">
+      <c r="R37" s="113">
         <v>4</v>
       </c>
-      <c r="S37" s="151">
+      <c r="S37" s="161">
         <v>20.067114093959731</v>
       </c>
-      <c r="T37" s="140">
+      <c r="T37" s="150">
         <v>480195.58992214763</v>
       </c>
       <c r="U37" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V37" s="165" t="s">
-        <v>172</v>
+      <c r="V37" s="175" t="s">
+        <v>173</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X37" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y37" s="166" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y37" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z37" s="142">
+      <c r="Z37" s="152">
         <f t="shared" si="1"/>
         <v>480190</v>
       </c>
-      <c r="AA37" s="143">
+      <c r="AA37" s="153">
         <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB37" s="144">
+      <c r="AB37" s="154">
         <f t="shared" si="3"/>
         <v>2.0067114093959729E-2</v>
       </c>
-      <c r="AC37" s="145">
+      <c r="AC37" s="155">
         <f t="shared" si="4"/>
         <v>480190.02406711411</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="7" t="str" cm="1">
         <f t="array" ref="B38">IFERROR(_xlfn.IFS($D38="Other", C38&amp;"_" &amp;Ref_Other_to,OR($D38="UK", $D38="US"),$D38),"")</f>
@@ -10919,7 +10969,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H38" s="9">
         <v>1000000000</v>
@@ -10932,61 +10982,61 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="100">
+      <c r="O38" s="110">
         <f t="shared" ref="O38" si="30">IFERROR(IF(AND(C38&lt;&gt;"US",F38="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G38,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>4.9152098229326544</v>
       </c>
-      <c r="P38" s="101" t="str">
+      <c r="P38" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q38" s="18">
         <v>534260</v>
       </c>
-      <c r="R38" s="103">
+      <c r="R38" s="113">
         <v>4.8</v>
       </c>
-      <c r="S38" s="151">
+      <c r="S38" s="161">
         <v>24.463087248322143</v>
       </c>
-      <c r="T38" s="140">
+      <c r="T38" s="150">
         <v>534266.81234281883</v>
       </c>
       <c r="U38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V38" s="165" t="s">
-        <v>174</v>
+      <c r="V38" s="175" t="s">
+        <v>175</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y38" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y38" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z38" s="142">
+      <c r="Z38" s="152">
         <f t="shared" si="1"/>
         <v>534260</v>
       </c>
-      <c r="AA38" s="143">
+      <c r="AA38" s="153">
         <f t="shared" si="2"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="AB38" s="144">
+      <c r="AB38" s="154">
         <f t="shared" si="3"/>
         <v>2.4463087248322142E-2</v>
       </c>
-      <c r="AC38" s="145">
+      <c r="AC38" s="155">
         <f t="shared" si="4"/>
         <v>534260.0292630872</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="7" t="str" cm="1">
         <f t="array" ref="B39">IFERROR(_xlfn.IFS($D39="Other", C39&amp;"_" &amp;Ref_Other_to,OR($D39="UK", $D39="US"),$D39),"")</f>
@@ -11005,7 +11055,7 @@
         <v>8</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H39" s="9">
         <v>1000000000</v>
@@ -11018,61 +11068,61 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="100">
+      <c r="O39" s="110">
         <f t="shared" ref="O39" si="31">IFERROR(IF(AND(C39&lt;&gt;"US",F39="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G39,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>4.3008287202332207</v>
       </c>
-      <c r="P39" s="101" t="str">
+      <c r="P39" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q39" s="18">
         <v>610580</v>
       </c>
-      <c r="R39" s="103">
+      <c r="R39" s="113">
         <v>4.8</v>
       </c>
-      <c r="S39" s="151">
+      <c r="S39" s="161">
         <v>24.463087248322143</v>
       </c>
-      <c r="T39" s="140">
+      <c r="T39" s="150">
         <v>610586.81234281883</v>
       </c>
       <c r="U39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V39" s="165" t="s">
-        <v>178</v>
+      <c r="V39" s="175" t="s">
+        <v>179</v>
       </c>
       <c r="W39" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X39" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y39" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y39" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z39" s="142">
+      <c r="Z39" s="152">
         <f t="shared" si="1"/>
         <v>610580</v>
       </c>
-      <c r="AA39" s="143">
+      <c r="AA39" s="153">
         <f t="shared" si="2"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="AB39" s="144">
+      <c r="AB39" s="154">
         <f t="shared" si="3"/>
         <v>2.4463087248322142E-2</v>
       </c>
-      <c r="AC39" s="145">
+      <c r="AC39" s="155">
         <f t="shared" si="4"/>
         <v>610580.0292630872</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="7" t="str" cm="1">
         <f t="array" ref="B40">IFERROR(_xlfn.IFS($D40="Other", C40&amp;"_" &amp;Ref_Other_to,OR($D40="UK", $D40="US"),$D40),"")</f>
@@ -11091,7 +11141,7 @@
         <v>8</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H40" s="9">
         <v>1000000000</v>
@@ -11104,61 +11154,61 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="100">
+      <c r="O40" s="110">
         <f t="shared" ref="O40" si="32">IFERROR(IF(AND(C40&lt;&gt;"US",F40="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G40,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>3.822972776241083</v>
       </c>
-      <c r="P40" s="101" t="str">
+      <c r="P40" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q40" s="18">
         <v>686900</v>
       </c>
-      <c r="R40" s="103">
+      <c r="R40" s="113">
         <v>4.8</v>
       </c>
-      <c r="S40" s="151">
+      <c r="S40" s="161">
         <v>24.463087248322143</v>
       </c>
-      <c r="T40" s="140">
+      <c r="T40" s="150">
         <v>686906.81234281883</v>
       </c>
       <c r="U40" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V40" s="165" t="s">
-        <v>180</v>
+      <c r="V40" s="175" t="s">
+        <v>181</v>
       </c>
       <c r="W40" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X40" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y40" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y40" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z40" s="142">
+      <c r="Z40" s="152">
         <f t="shared" si="1"/>
         <v>686900</v>
       </c>
-      <c r="AA40" s="143">
+      <c r="AA40" s="153">
         <f t="shared" si="2"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="AB40" s="144">
+      <c r="AB40" s="154">
         <f t="shared" si="3"/>
         <v>2.4463087248322142E-2</v>
       </c>
-      <c r="AC40" s="145">
+      <c r="AC40" s="155">
         <f t="shared" si="4"/>
         <v>686900.0292630872</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="7" t="str" cm="1">
         <f t="array" ref="B41">IFERROR(_xlfn.IFS($D41="Other", C41&amp;"_" &amp;Ref_Other_to,OR($D41="UK", $D41="US"),$D41),"")</f>
@@ -11176,8 +11226,8 @@
       <c r="F41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="170" t="s">
-        <v>181</v>
+      <c r="G41" s="180" t="s">
+        <v>182</v>
       </c>
       <c r="H41" s="9">
         <v>1000000000</v>
@@ -11190,61 +11240,61 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="100">
+      <c r="O41" s="110">
         <f t="shared" ref="O41" si="33">IFERROR(IF(AND(C41&lt;&gt;"US",F41="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G41,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>4.4800818903011175</v>
       </c>
-      <c r="P41" s="101" t="str">
+      <c r="P41" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q41" s="18">
         <v>586150</v>
       </c>
-      <c r="R41" s="103">
+      <c r="R41" s="113">
         <v>4.8</v>
       </c>
-      <c r="S41" s="151">
+      <c r="S41" s="161">
         <v>24.463087248322143</v>
       </c>
-      <c r="T41" s="140">
+      <c r="T41" s="150">
         <v>586156.81234281883</v>
       </c>
       <c r="U41" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V41" s="165" t="s">
-        <v>182</v>
+      <c r="V41" s="175" t="s">
+        <v>183</v>
       </c>
       <c r="W41" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X41" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y41" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y41" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z41" s="142">
+      <c r="Z41" s="152">
         <f t="shared" si="1"/>
         <v>586150</v>
       </c>
-      <c r="AA41" s="143">
+      <c r="AA41" s="153">
         <f t="shared" si="2"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="AB41" s="144">
+      <c r="AB41" s="154">
         <f t="shared" si="3"/>
         <v>2.4463087248322142E-2</v>
       </c>
-      <c r="AC41" s="145">
+      <c r="AC41" s="155">
         <f t="shared" si="4"/>
         <v>586150.0292630872</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="7" t="str" cm="1">
         <f t="array" ref="B42">IFERROR(_xlfn.IFS($D42="Other", C42&amp;"_" &amp;Ref_Other_to,OR($D42="UK", $D42="US"),$D42),"")</f>
@@ -11263,7 +11313,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H42" s="9">
         <v>1000000000</v>
@@ -11276,61 +11326,61 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="100">
+      <c r="O42" s="110">
         <f t="shared" ref="O42" si="34">IFERROR(IF(AND(C42&lt;&gt;"US",F42="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G42,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>3.5680317399929344</v>
       </c>
-      <c r="P42" s="101" t="str">
+      <c r="P42" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q42" s="18">
         <v>735980</v>
       </c>
-      <c r="R42" s="103">
+      <c r="R42" s="113">
         <v>8.0000000000000018</v>
       </c>
-      <c r="S42" s="151">
+      <c r="S42" s="161">
         <v>39.966442953020135</v>
       </c>
-      <c r="T42" s="140">
+      <c r="T42" s="150">
         <v>735991.13403892622</v>
       </c>
       <c r="U42" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V42" s="165" t="s">
-        <v>184</v>
+      <c r="V42" s="175" t="s">
+        <v>185</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X42" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y42" s="166" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y42" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z42" s="142">
+      <c r="Z42" s="152">
         <f t="shared" si="1"/>
         <v>735980</v>
       </c>
-      <c r="AA42" s="143">
+      <c r="AA42" s="153">
         <f t="shared" si="2"/>
         <v>8.0000000000000019E-3</v>
       </c>
-      <c r="AB42" s="144">
+      <c r="AB42" s="154">
         <f t="shared" si="3"/>
         <v>3.9966442953020133E-2</v>
       </c>
-      <c r="AC42" s="145">
+      <c r="AC42" s="155">
         <f t="shared" si="4"/>
         <v>735980.047966443</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="7" t="str" cm="1">
         <f t="array" ref="B43">IFERROR(_xlfn.IFS($D43="Other", C43&amp;"_" &amp;Ref_Other_to,OR($D43="UK", $D43="US"),$D43),"")</f>
@@ -11349,7 +11399,7 @@
         <v>8</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H43" s="9">
         <v>1000000000</v>
@@ -11362,61 +11412,61 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="100">
+      <c r="O43" s="110">
         <f t="shared" ref="O43" si="35">IFERROR(IF(AND(C43&lt;&gt;"US",F43="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G43,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>2.9257748958263696</v>
       </c>
-      <c r="P43" s="101" t="str">
+      <c r="P43" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q43" s="18">
         <v>897540</v>
       </c>
-      <c r="R43" s="103">
+      <c r="R43" s="113">
         <v>8.0000000000000018</v>
       </c>
-      <c r="S43" s="151">
+      <c r="S43" s="161">
         <v>39.966442953020135</v>
       </c>
-      <c r="T43" s="140">
+      <c r="T43" s="150">
         <v>897551.13403892622</v>
       </c>
       <c r="U43" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V43" s="165" t="s">
-        <v>188</v>
+      <c r="V43" s="175" t="s">
+        <v>189</v>
       </c>
       <c r="W43" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X43" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y43" s="166" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y43" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z43" s="142">
+      <c r="Z43" s="152">
         <f t="shared" si="1"/>
         <v>897540</v>
       </c>
-      <c r="AA43" s="143">
+      <c r="AA43" s="153">
         <f t="shared" si="2"/>
         <v>8.0000000000000019E-3</v>
       </c>
-      <c r="AB43" s="144">
+      <c r="AB43" s="154">
         <f t="shared" si="3"/>
         <v>3.9966442953020133E-2</v>
       </c>
-      <c r="AC43" s="145">
+      <c r="AC43" s="155">
         <f t="shared" si="4"/>
         <v>897540.047966443</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="7" t="str" cm="1">
         <f t="array" ref="B44">IFERROR(_xlfn.IFS($D44="Other", C44&amp;"_" &amp;Ref_Other_to,OR($D44="UK", $D44="US"),$D44),"")</f>
@@ -11435,7 +11485,7 @@
         <v>8</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H44" s="9">
         <v>1000000000</v>
@@ -11448,61 +11498,61 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="100">
+      <c r="O44" s="110">
         <f t="shared" ref="O44" si="36">IFERROR(IF(AND(C44&lt;&gt;"US",F44="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G44,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>2.4794871068558852</v>
       </c>
-      <c r="P44" s="101" t="str">
+      <c r="P44" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q44" s="18">
         <v>1059090.0000000002</v>
       </c>
-      <c r="R44" s="103">
+      <c r="R44" s="113">
         <v>8.0000000000000018</v>
       </c>
-      <c r="S44" s="151">
+      <c r="S44" s="161">
         <v>39.966442953020135</v>
       </c>
-      <c r="T44" s="140">
+      <c r="T44" s="150">
         <v>1059101.1340389263</v>
       </c>
       <c r="U44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V44" s="165" t="s">
-        <v>190</v>
+      <c r="V44" s="175" t="s">
+        <v>191</v>
       </c>
       <c r="W44" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X44" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y44" s="166" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y44" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z44" s="142">
+      <c r="Z44" s="152">
         <f t="shared" si="1"/>
         <v>1059090.0000000002</v>
       </c>
-      <c r="AA44" s="143">
+      <c r="AA44" s="153">
         <f t="shared" si="2"/>
         <v>8.0000000000000019E-3</v>
       </c>
-      <c r="AB44" s="144">
+      <c r="AB44" s="154">
         <f t="shared" si="3"/>
         <v>3.9966442953020133E-2</v>
       </c>
-      <c r="AC44" s="145">
+      <c r="AC44" s="155">
         <f t="shared" si="4"/>
         <v>1059090.047966443</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="7" t="str" cm="1">
         <f t="array" ref="B45">IFERROR(_xlfn.IFS($D45="Other", C45&amp;"_" &amp;Ref_Other_to,OR($D45="UK", $D45="US"),$D45),"")</f>
@@ -11520,8 +11570,8 @@
       <c r="F45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="170" t="s">
-        <v>191</v>
+      <c r="G45" s="180" t="s">
+        <v>192</v>
       </c>
       <c r="H45" s="9">
         <v>1000000000</v>
@@ -11534,61 +11584,61 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="100">
+      <c r="O45" s="110">
         <f t="shared" ref="O45" si="37">IFERROR(IF(AND(C45&lt;&gt;"US",F45="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G45,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>2.7253668763102725</v>
       </c>
-      <c r="P45" s="101" t="str">
+      <c r="P45" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q45" s="18">
         <v>963540</v>
       </c>
-      <c r="R45" s="103">
+      <c r="R45" s="113">
         <v>8.0000000000000018</v>
       </c>
-      <c r="S45" s="151">
+      <c r="S45" s="161">
         <v>39.966442953020135</v>
       </c>
-      <c r="T45" s="140">
+      <c r="T45" s="150">
         <v>963551.13403892622</v>
       </c>
       <c r="U45" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V45" s="165" t="s">
-        <v>192</v>
+      <c r="V45" s="175" t="s">
+        <v>193</v>
       </c>
       <c r="W45" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X45" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y45" s="166" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y45" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z45" s="142">
+      <c r="Z45" s="152">
         <f t="shared" si="1"/>
         <v>963540</v>
       </c>
-      <c r="AA45" s="143">
+      <c r="AA45" s="153">
         <f t="shared" si="2"/>
         <v>8.0000000000000019E-3</v>
       </c>
-      <c r="AB45" s="144">
+      <c r="AB45" s="154">
         <f t="shared" si="3"/>
         <v>3.9966442953020133E-2</v>
       </c>
-      <c r="AC45" s="145">
+      <c r="AC45" s="155">
         <f t="shared" si="4"/>
         <v>963540.047966443</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="7" t="str" cm="1">
         <f t="array" ref="B46">IFERROR(_xlfn.IFS($D46="Other", C46&amp;"_" &amp;Ref_Other_to,OR($D46="UK", $D46="US"),$D46),"")</f>
@@ -11607,7 +11657,7 @@
         <v>8</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H46" s="9">
         <v>1000000000</v>
@@ -11620,61 +11670,61 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="100">
+      <c r="O46" s="110">
         <f t="shared" ref="O46" si="38">IFERROR(IF(AND(C46&lt;&gt;"US",F46="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G46,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>4.3519331797616871</v>
       </c>
-      <c r="P46" s="101" t="str">
+      <c r="P46" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q46" s="18">
         <v>603410</v>
       </c>
-      <c r="R46" s="103">
+      <c r="R46" s="113">
         <v>4.3999999999999995</v>
       </c>
-      <c r="S46" s="151">
+      <c r="S46" s="161">
         <v>45.604026845637577</v>
       </c>
-      <c r="T46" s="140">
+      <c r="T46" s="150">
         <v>603422.57265932893</v>
       </c>
       <c r="U46" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V46" s="165" t="s">
-        <v>194</v>
+      <c r="V46" s="175" t="s">
+        <v>195</v>
       </c>
       <c r="W46" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X46" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y46" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y46" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z46" s="142">
+      <c r="Z46" s="152">
         <f t="shared" si="1"/>
         <v>603410</v>
       </c>
-      <c r="AA46" s="143">
+      <c r="AA46" s="153">
         <f t="shared" si="2"/>
         <v>4.3999999999999994E-3</v>
       </c>
-      <c r="AB46" s="144">
+      <c r="AB46" s="154">
         <f t="shared" si="3"/>
         <v>4.560402684563758E-2</v>
       </c>
-      <c r="AC46" s="145">
+      <c r="AC46" s="155">
         <f t="shared" si="4"/>
         <v>603410.05000402685</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="7" t="str" cm="1">
         <f t="array" ref="B47">IFERROR(_xlfn.IFS($D47="Other", C47&amp;"_" &amp;Ref_Other_to,OR($D47="UK", $D47="US"),$D47),"")</f>
@@ -11693,7 +11743,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H47" s="9">
         <v>1000000000</v>
@@ -11706,61 +11756,61 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="100">
+      <c r="O47" s="110">
         <f t="shared" ref="O47" si="39">IFERROR(IF(AND(C47&lt;&gt;"US",F47="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G47,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>3.4815580834195101</v>
       </c>
-      <c r="P47" s="101" t="str">
+      <c r="P47" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q47" s="18">
         <v>754260</v>
       </c>
-      <c r="R47" s="103">
+      <c r="R47" s="113">
         <v>4.3999999999999995</v>
       </c>
-      <c r="S47" s="151">
+      <c r="S47" s="161">
         <v>45.604026845637577</v>
       </c>
-      <c r="T47" s="140">
+      <c r="T47" s="150">
         <v>754272.57265932893</v>
       </c>
       <c r="U47" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V47" s="165" t="s">
-        <v>198</v>
+      <c r="V47" s="175" t="s">
+        <v>199</v>
       </c>
       <c r="W47" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X47" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y47" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y47" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z47" s="142">
+      <c r="Z47" s="152">
         <f t="shared" si="1"/>
         <v>754260</v>
       </c>
-      <c r="AA47" s="143">
+      <c r="AA47" s="153">
         <f t="shared" si="2"/>
         <v>4.3999999999999994E-3</v>
       </c>
-      <c r="AB47" s="144">
+      <c r="AB47" s="154">
         <f t="shared" si="3"/>
         <v>4.560402684563758E-2</v>
       </c>
-      <c r="AC47" s="145">
+      <c r="AC47" s="155">
         <f t="shared" si="4"/>
         <v>754260.05000402685</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="7" t="str" cm="1">
         <f t="array" ref="B48">IFERROR(_xlfn.IFS($D48="Other", C48&amp;"_" &amp;Ref_Other_to,OR($D48="UK", $D48="US"),$D48),"")</f>
@@ -11779,7 +11829,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H48" s="9">
         <v>1000000000</v>
@@ -11792,145 +11842,145 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="100">
+      <c r="O48" s="110">
         <f t="shared" ref="O48" si="40">IFERROR(IF(AND(C48&lt;&gt;"US",F48="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G48,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>2.9012727594131165</v>
       </c>
-      <c r="P48" s="101" t="str">
+      <c r="P48" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q48" s="18">
         <v>905120</v>
       </c>
-      <c r="R48" s="103">
+      <c r="R48" s="113">
         <v>4.3999999999999995</v>
       </c>
-      <c r="S48" s="151">
+      <c r="S48" s="161">
         <v>45.604026845637577</v>
       </c>
-      <c r="T48" s="140">
+      <c r="T48" s="150">
         <v>905132.57265932893</v>
       </c>
       <c r="U48" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="165" t="s">
-        <v>200</v>
+      <c r="V48" s="175" t="s">
+        <v>201</v>
       </c>
       <c r="W48" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X48" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y48" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y48" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z48" s="142">
+      <c r="Z48" s="152">
         <f t="shared" si="1"/>
         <v>905120</v>
       </c>
-      <c r="AA48" s="143">
+      <c r="AA48" s="153">
         <f t="shared" si="2"/>
         <v>4.3999999999999994E-3</v>
       </c>
-      <c r="AB48" s="144">
+      <c r="AB48" s="154">
         <f t="shared" si="3"/>
         <v>4.560402684563758E-2</v>
       </c>
-      <c r="AC48" s="145">
+      <c r="AC48" s="155">
         <f t="shared" si="4"/>
         <v>905120.05000402685</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="105" t="str" cm="1">
+      <c r="A49" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="115" t="str" cm="1">
         <f t="array" ref="B49">IFERROR(_xlfn.IFS($D49="Other", C49&amp;"_" &amp;Ref_Other_to,OR($D49="UK", $D49="US"),$D49),"")</f>
         <v/>
       </c>
-      <c r="C49" s="106" t="s">
+      <c r="C49" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="106" t="s">
+      <c r="D49" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="106" t="s">
+      <c r="E49" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="107" t="s">
+      <c r="F49" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="171" t="s">
-        <v>201</v>
-      </c>
-      <c r="H49" s="108">
+      <c r="G49" s="181" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="118">
         <v>1000000000</v>
       </c>
-      <c r="I49" s="108" t="s">
+      <c r="I49" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="109">
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="118"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="119">
         <f t="shared" ref="O49" si="41">IFERROR(IF(AND(C49&lt;&gt;"US",F49="Vehicle Distance (e.g. Road Transport)"),VLOOKUP(G49,Ref_EF_Vehicle_Distance_UK,16,FALSE),""),"")</f>
         <v>3.4815580834195101</v>
       </c>
-      <c r="P49" s="110" t="str">
+      <c r="P49" s="120" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q49" s="111">
+      <c r="Q49" s="121">
         <v>754260</v>
       </c>
-      <c r="R49" s="112">
+      <c r="R49" s="122">
         <v>4.3999999999999995</v>
       </c>
-      <c r="S49" s="152">
+      <c r="S49" s="162">
         <v>45.604026845637577</v>
       </c>
-      <c r="T49" s="141">
+      <c r="T49" s="151">
         <v>754272.57265932893</v>
       </c>
-      <c r="U49" s="156" t="s">
+      <c r="U49" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="V49" s="167" t="s">
-        <v>198</v>
-      </c>
-      <c r="W49" s="113" t="s">
-        <v>195</v>
+      <c r="V49" s="177" t="s">
+        <v>199</v>
+      </c>
+      <c r="W49" s="123" t="s">
+        <v>196</v>
       </c>
       <c r="X49" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y49" s="168"/>
-      <c r="Z49" s="142">
+        <v>197</v>
+      </c>
+      <c r="Y49" s="178"/>
+      <c r="Z49" s="152">
         <f t="shared" si="1"/>
         <v>754260</v>
       </c>
-      <c r="AA49" s="143">
+      <c r="AA49" s="153">
         <f t="shared" si="2"/>
         <v>4.3999999999999994E-3</v>
       </c>
-      <c r="AB49" s="144">
+      <c r="AB49" s="154">
         <f t="shared" si="3"/>
         <v>4.560402684563758E-2</v>
       </c>
-      <c r="AC49" s="145">
+      <c r="AC49" s="155">
         <f t="shared" si="4"/>
         <v>754260.05000402685</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="7" t="str" cm="1">
         <f t="array" ref="B50">IFERROR(_xlfn.IFS($D50="Other", C50&amp;"_" &amp;Ref_Other_to,OR($D50="UK", $D50="US"),$D50),"")</f>
@@ -11949,7 +11999,7 @@
         <v>8</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H50" s="9">
         <v>1000000000</v>
@@ -11962,11 +12012,11 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="134" t="str">
+      <c r="O50" s="144" t="str">
         <f>IFERROR(IF(AND(B50&lt;&gt;"US",F50="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G50,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P50" s="101" t="str">
+      <c r="P50" s="111" t="str">
         <f>IF(OR((
 AND(C50="UK",OR(D50="Water",D50="Aircraft",D50="Rail"),OR(E50="Scope 1",E50="Scope 3"),F50="Vehicle Distance (e.g. Road Transport)")),
 AND(OR(C50="UK",B50="Other_UK"),D50&lt;&gt;"Road",OR(E50="Scope 1",E50="Scope 3"),F50="Vehicle Distance (e.g. Road Transport)"),
@@ -11984,50 +12034,50 @@
       <c r="Q50" s="15">
         <v>617980</v>
       </c>
-      <c r="R50" s="102">
+      <c r="R50" s="112">
         <v>5.2</v>
       </c>
-      <c r="S50" s="151">
+      <c r="S50" s="161">
         <v>54.261744966442954</v>
       </c>
-      <c r="T50" s="140">
+      <c r="T50" s="150">
         <v>617994.9585363759</v>
       </c>
       <c r="U50" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V50" s="165" t="s">
-        <v>208</v>
+      <c r="V50" s="175" t="s">
+        <v>209</v>
       </c>
       <c r="W50" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X50" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y50" s="166" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y50" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z50" s="142">
+      <c r="Z50" s="152">
         <f t="shared" si="1"/>
         <v>617980</v>
       </c>
-      <c r="AA50" s="143">
+      <c r="AA50" s="153">
         <f t="shared" si="2"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="AB50" s="144">
+      <c r="AB50" s="154">
         <f t="shared" si="3"/>
         <v>5.4261744966442954E-2</v>
       </c>
-      <c r="AC50" s="145">
+      <c r="AC50" s="155">
         <f t="shared" si="4"/>
         <v>617980.05946174497</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" s="7" t="str" cm="1">
         <f t="array" ref="B51">IFERROR(_xlfn.IFS($D51="Other", C51&amp;"_" &amp;Ref_Other_to,OR($D51="UK", $D51="US"),$D51),"")</f>
@@ -12046,7 +12096,7 @@
         <v>8</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H51" s="9">
         <v>1000000000</v>
@@ -12059,11 +12109,11 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="134" t="str">
+      <c r="O51" s="144" t="str">
         <f>IFERROR(IF(AND(B51&lt;&gt;"US",F51="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G51,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P51" s="101" t="str">
+      <c r="P51" s="111" t="str">
         <f t="shared" ref="P51:P55" si="42">IF(OR((
 AND(C51="UK",OR(D51="Water",D51="Aircraft",D51="Rail"),OR(E51="Scope 1",E51="Scope 3"),F51="Vehicle Distance (e.g. Road Transport)")),
 AND(OR(C51="UK",B51="Other_UK"),D51&lt;&gt;"Road",OR(E51="Scope 1",E51="Scope 3"),F51="Vehicle Distance (e.g. Road Transport)"),
@@ -12081,50 +12131,50 @@
       <c r="Q51" s="15">
         <v>823970</v>
       </c>
-      <c r="R51" s="102">
+      <c r="R51" s="112">
         <v>5.2</v>
       </c>
-      <c r="S51" s="151">
+      <c r="S51" s="161">
         <v>54.261744966442954</v>
       </c>
-      <c r="T51" s="140">
+      <c r="T51" s="150">
         <v>823984.9585363759</v>
       </c>
       <c r="U51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V51" s="165" t="s">
-        <v>212</v>
+      <c r="V51" s="175" t="s">
+        <v>213</v>
       </c>
       <c r="W51" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X51" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y51" s="166" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y51" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z51" s="142">
+      <c r="Z51" s="152">
         <f t="shared" si="1"/>
         <v>823970</v>
       </c>
-      <c r="AA51" s="143">
+      <c r="AA51" s="153">
         <f t="shared" si="2"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="AB51" s="144">
+      <c r="AB51" s="154">
         <f t="shared" si="3"/>
         <v>5.4261744966442954E-2</v>
       </c>
-      <c r="AC51" s="145">
+      <c r="AC51" s="155">
         <f t="shared" si="4"/>
         <v>823970.05946174497</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" s="7" t="str" cm="1">
         <f t="array" ref="B52">IFERROR(_xlfn.IFS($D52="Other", C52&amp;"_" &amp;Ref_Other_to,OR($D52="UK", $D52="US"),$D52),"")</f>
@@ -12143,7 +12193,7 @@
         <v>8</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H52" s="9">
         <v>1000000000</v>
@@ -12156,61 +12206,61 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="134" t="str">
+      <c r="O52" s="144" t="str">
         <f>IFERROR(IF(AND(B52&lt;&gt;"US",F52="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G52,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P52" s="101" t="str">
+      <c r="P52" s="111" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q52" s="18">
         <v>1029960</v>
       </c>
-      <c r="R52" s="102">
+      <c r="R52" s="112">
         <v>5.2</v>
       </c>
-      <c r="S52" s="151">
+      <c r="S52" s="161">
         <v>54.261744966442954</v>
       </c>
-      <c r="T52" s="140">
+      <c r="T52" s="150">
         <v>1029974.9585363759</v>
       </c>
       <c r="U52" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V52" s="165" t="s">
-        <v>214</v>
+      <c r="V52" s="175" t="s">
+        <v>215</v>
       </c>
       <c r="W52" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X52" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y52" s="166" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y52" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z52" s="142">
+      <c r="Z52" s="152">
         <f t="shared" si="1"/>
         <v>1029960</v>
       </c>
-      <c r="AA52" s="143">
+      <c r="AA52" s="153">
         <f t="shared" si="2"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="AB52" s="144">
+      <c r="AB52" s="154">
         <f t="shared" si="3"/>
         <v>5.4261744966442954E-2</v>
       </c>
-      <c r="AC52" s="145">
+      <c r="AC52" s="155">
         <f t="shared" si="4"/>
         <v>1029960.059461745</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="7" t="str" cm="1">
         <f t="array" ref="B53">IFERROR(_xlfn.IFS($D53="Other", C53&amp;"_" &amp;Ref_Other_to,OR($D53="UK", $D53="US"),$D53),"")</f>
@@ -12228,8 +12278,8 @@
       <c r="F53" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="170" t="s">
-        <v>215</v>
+      <c r="G53" s="180" t="s">
+        <v>216</v>
       </c>
       <c r="H53" s="9">
         <v>1000000000</v>
@@ -12242,61 +12292,61 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="134" t="str">
+      <c r="O53" s="144" t="str">
         <f>IFERROR(IF(AND(B53&lt;&gt;"US",F53="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G53,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P53" s="101" t="str">
+      <c r="P53" s="111" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q53" s="18">
         <v>898130</v>
       </c>
-      <c r="R53" s="102">
+      <c r="R53" s="112">
         <v>5.2</v>
       </c>
-      <c r="S53" s="151">
+      <c r="S53" s="161">
         <v>54.261744966442954</v>
       </c>
-      <c r="T53" s="140">
+      <c r="T53" s="150">
         <v>898144.9585363759</v>
       </c>
       <c r="U53" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V53" s="165" t="s">
-        <v>188</v>
+      <c r="V53" s="175" t="s">
+        <v>189</v>
       </c>
       <c r="W53" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X53" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y53" s="166" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y53" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z53" s="142">
+      <c r="Z53" s="152">
         <f t="shared" si="1"/>
         <v>898130</v>
       </c>
-      <c r="AA53" s="143">
+      <c r="AA53" s="153">
         <f t="shared" si="2"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="AB53" s="144">
+      <c r="AB53" s="154">
         <f t="shared" si="3"/>
         <v>5.4261744966442954E-2</v>
       </c>
-      <c r="AC53" s="145">
+      <c r="AC53" s="155">
         <f t="shared" si="4"/>
         <v>898130.05946174497</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="7" t="str" cm="1">
         <f t="array" ref="B54">IFERROR(_xlfn.IFS($D54="Other", C54&amp;"_" &amp;Ref_Other_to,OR($D54="UK", $D54="US"),$D54),"")</f>
@@ -12314,8 +12364,8 @@
       <c r="F54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="172" t="s">
-        <v>216</v>
+      <c r="G54" s="182" t="s">
+        <v>217</v>
       </c>
       <c r="H54" s="9">
         <v>1000000000</v>
@@ -12328,61 +12378,61 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="134" t="str">
+      <c r="O54" s="144" t="str">
         <f>IFERROR(IF(AND(B54&lt;&gt;"US",F54="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G54,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P54" s="101" t="str">
+      <c r="P54" s="111" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q54" s="18">
         <v>892010</v>
       </c>
-      <c r="R54" s="102">
+      <c r="R54" s="112">
         <v>5.2</v>
       </c>
-      <c r="S54" s="151">
+      <c r="S54" s="161">
         <v>53.892617449664435</v>
       </c>
-      <c r="T54" s="140">
+      <c r="T54" s="150">
         <v>892024.85776456376</v>
       </c>
       <c r="U54" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V54" s="165" t="s">
-        <v>217</v>
+      <c r="V54" s="175" t="s">
+        <v>218</v>
       </c>
       <c r="W54" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X54" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y54" s="166" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y54" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z54" s="142">
+      <c r="Z54" s="152">
         <f t="shared" si="1"/>
         <v>892010</v>
       </c>
-      <c r="AA54" s="143">
+      <c r="AA54" s="153">
         <f t="shared" si="2"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="AB54" s="144">
+      <c r="AB54" s="154">
         <f t="shared" si="3"/>
         <v>5.3892617449664434E-2</v>
       </c>
-      <c r="AC54" s="145">
+      <c r="AC54" s="155">
         <f t="shared" si="4"/>
         <v>892010.05909261748</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="7" t="str" cm="1">
         <f t="array" ref="B55">IFERROR(_xlfn.IFS($D55="Other", C55&amp;"_" &amp;Ref_Other_to,OR($D55="UK", $D55="US"),$D55),"")</f>
@@ -12400,8 +12450,8 @@
       <c r="F55" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="173" t="s">
-        <v>219</v>
+      <c r="G55" s="183" t="s">
+        <v>220</v>
       </c>
       <c r="H55" s="9">
         <v>1000000000</v>
@@ -12414,216 +12464,216 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="134" t="str">
+      <c r="O55" s="144" t="str">
         <f>IFERROR(IF(AND(B55&lt;&gt;"US",F55="Vehicle Distance (e.g. Road Transport)"),(VLOOKUP(G55,'[1]Reference - EF Road'!#REF!,16, FALSE)),""),"")</f>
         <v/>
       </c>
-      <c r="P55" s="101" t="str">
+      <c r="P55" s="111" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q55" s="18">
         <v>859940</v>
       </c>
-      <c r="R55" s="102">
+      <c r="R55" s="112">
         <v>5.6</v>
       </c>
-      <c r="S55" s="151">
+      <c r="S55" s="161">
         <v>45.100671140939596</v>
       </c>
-      <c r="T55" s="140">
+      <c r="T55" s="150">
         <v>859952.46872322157</v>
       </c>
       <c r="U55" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V55" s="169" t="s">
-        <v>220</v>
-      </c>
-      <c r="W55" s="70" t="s">
+      <c r="V55" s="179" t="s">
         <v>221</v>
       </c>
-      <c r="X55" s="70" t="s">
+      <c r="W55" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="Y55" s="71" t="s">
+      <c r="X55" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y55" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="Z55" s="142">
+      <c r="Z55" s="152">
         <f t="shared" si="1"/>
         <v>859940</v>
       </c>
-      <c r="AA55" s="143">
+      <c r="AA55" s="153">
         <f t="shared" si="2"/>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="AB55" s="144">
+      <c r="AB55" s="154">
         <f t="shared" si="3"/>
         <v>4.5100671140939595E-2</v>
       </c>
-      <c r="AC55" s="145">
+      <c r="AC55" s="155">
         <f t="shared" si="4"/>
         <v>859940.05070067116</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="114"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="174">
+      <c r="A56" s="124"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="184">
         <f>SUM(H5:H55)</f>
         <v>51000000000</v>
       </c>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="115"/>
-      <c r="O56" s="116"/>
-      <c r="P56" s="117"/>
-      <c r="T56" s="118">
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="125"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="127"/>
+      <c r="T56" s="128">
         <f>SUM(T5:T55)</f>
         <v>21289620.047818407</v>
       </c>
-      <c r="U56" s="118">
+      <c r="U56" s="128">
         <f>SUM(U5:U49)</f>
         <v>0</v>
       </c>
-      <c r="AC56" s="142">
+      <c r="AC56" s="152">
         <f>SUM(AC5:AC55)</f>
         <v>21289351.643023178</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="114"/>
-      <c r="L57" s="115"/>
-      <c r="N57" s="120" t="s">
+      <c r="A57" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="O57" s="121" t="s">
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="125"/>
+      <c r="N57" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="O57" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="P57" s="121"/>
-      <c r="Q57" s="122">
+      <c r="P57" s="131"/>
+      <c r="Q57" s="132">
         <f>T56</f>
         <v>21289620.047818407</v>
       </c>
-      <c r="U57" s="123"/>
+      <c r="U57" s="133"/>
     </row>
     <row r="58" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58" s="124"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="115"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="127"/>
-      <c r="P58" s="127"/>
-      <c r="Q58" s="128"/>
-      <c r="W58" s="175" t="s">
-        <v>230</v>
-      </c>
-      <c r="X58" s="176">
+      <c r="A58" s="134" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="125"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="137"/>
+      <c r="P58" s="137"/>
+      <c r="Q58" s="138"/>
+      <c r="W58" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="X58" s="186">
         <f>T56-AC56</f>
         <v>268.40479522943497</v>
       </c>
-      <c r="Y58" s="175" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z58" s="138"/>
+      <c r="Y58" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z58" s="148"/>
     </row>
     <row r="59" spans="1:29" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="124" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" s="124"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="123"/>
-      <c r="N59" s="126"/>
-      <c r="O59" s="130" t="s">
+      <c r="A59" s="134" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="124"/>
+      <c r="J59" s="124"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="125"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="P59" s="130"/>
-      <c r="Q59" s="128">
+      <c r="P59" s="140"/>
+      <c r="Q59" s="138">
         <v>0</v>
       </c>
-      <c r="S59" s="123"/>
-      <c r="T59" s="123"/>
-      <c r="U59" s="123"/>
-      <c r="V59" s="123"/>
-      <c r="W59" s="178" t="s">
-        <v>240</v>
-      </c>
-      <c r="X59" s="177">
+      <c r="S59" s="133"/>
+      <c r="T59" s="133"/>
+      <c r="U59" s="133"/>
+      <c r="V59" s="133"/>
+      <c r="W59" s="188" t="s">
+        <v>241</v>
+      </c>
+      <c r="X59" s="187">
         <f>X58/H56</f>
         <v>5.2628391221457836E-9</v>
       </c>
-      <c r="Y59" s="179" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z59" s="179"/>
-      <c r="AA59" s="118"/>
+      <c r="Y59" s="189" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z59" s="189"/>
+      <c r="AA59" s="128"/>
     </row>
     <row r="60" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="124" t="s">
-        <v>206</v>
-      </c>
-      <c r="B60" s="124"/>
-      <c r="C60" s="124"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="115"/>
-      <c r="M60" s="123"/>
-      <c r="N60" s="131"/>
-      <c r="O60" s="127"/>
-      <c r="P60" s="127"/>
-      <c r="Q60" s="132"/>
-      <c r="S60" s="123"/>
-      <c r="T60" s="123"/>
-      <c r="U60" s="123"/>
-      <c r="V60" s="123"/>
-      <c r="W60" s="123"/>
-      <c r="X60" s="123"/>
-      <c r="Y60" s="129"/>
+      <c r="A60" s="134" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="124"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="125"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="141"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="137"/>
+      <c r="Q60" s="142"/>
+      <c r="S60" s="133"/>
+      <c r="T60" s="133"/>
+      <c r="U60" s="133"/>
+      <c r="V60" s="133"/>
+      <c r="W60" s="133"/>
+      <c r="X60" s="133"/>
+      <c r="Y60" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="21">
